--- a/bali.xlsx
+++ b/bali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D715525D-0504-4E8B-91C1-2517E2B23863}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A4394F-A656-4365-A597-A0E08964370D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{84E13336-C440-430E-965B-9F833A38D5CE}"/>
   </bookViews>
@@ -679,9 +679,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -855,7 +852,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,111 +898,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1039,23 +931,94 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1375,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833CD187-026B-425D-AD56-1C0B29796AC2}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,11 +1348,11 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1405,22 +1368,22 @@
       <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="28" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1437,22 +1400,22 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
         <v>88.5</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="17">
         <v>75.599999999999994</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="17">
         <v>87</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="17">
         <v>134.28</v>
       </c>
     </row>
@@ -1465,22 +1428,22 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
         <v>105.4</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="18">
         <v>107.7</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="18">
         <v>100</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="18">
         <v>204.23</v>
       </c>
     </row>
@@ -1495,22 +1458,22 @@
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="32">
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
         <v>112</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="18">
         <v>96.8</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="18">
         <v>100</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="18">
         <v>70.150000000000006</v>
       </c>
     </row>
@@ -1523,22 +1486,22 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
         <v>95.1</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="18">
         <v>90.2</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="18">
         <v>87.7</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="18">
         <v>108.46</v>
       </c>
     </row>
@@ -1553,22 +1516,22 @@
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="18">
         <v>106.8</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="18">
         <v>91.3</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="18">
         <v>86.8</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="18">
         <v>171.71</v>
       </c>
     </row>
@@ -1581,22 +1544,22 @@
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32">
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
         <v>124.1</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="18">
         <v>100</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="18">
         <v>100</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="18">
         <v>143.46</v>
       </c>
     </row>
@@ -1611,22 +1574,22 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
         <v>95.9</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="18">
         <v>90</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="18">
         <v>100</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="18">
         <v>121.54</v>
       </c>
     </row>
@@ -1639,22 +1602,22 @@
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="30">
         <v>1</v>
       </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
         <v>90.6</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="18">
         <v>84.5</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="18">
         <v>93.1</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="18">
         <v>179.34</v>
       </c>
     </row>
@@ -1667,22 +1630,22 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="32">
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
         <v>101.4</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="18">
         <v>100.6</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="18">
         <v>99.6</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="18">
         <v>85.97</v>
       </c>
     </row>
@@ -1697,22 +1660,22 @@
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="32">
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
         <v>103.2</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="18">
         <v>100.2</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="18">
         <v>91.9</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="18">
         <v>117.24</v>
       </c>
     </row>
@@ -1725,22 +1688,22 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="32">
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
         <v>104.3</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="18">
         <v>92.4</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="18">
         <v>90</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="18">
         <v>205.57</v>
       </c>
     </row>
@@ -1755,22 +1718,22 @@
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="32">
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
         <v>99.5</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="18">
         <v>97.1</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="18">
         <v>100</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="18">
         <v>99.21</v>
       </c>
     </row>
@@ -1783,22 +1746,22 @@
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="32">
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
         <v>74.2</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="18">
         <v>62.8</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="18">
         <v>84.7</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="18">
         <v>107.56</v>
       </c>
     </row>
@@ -1813,22 +1776,22 @@
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
         <v>80.8</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="18">
         <v>75.599999999999994</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="18">
         <v>91.9</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="18">
         <v>114.82</v>
       </c>
     </row>
@@ -1841,22 +1804,22 @@
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32">
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
         <v>80.400000000000006</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="18">
         <v>74.099999999999994</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="18">
         <v>82.9</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="18">
         <v>101.46</v>
       </c>
     </row>
@@ -1869,22 +1832,22 @@
       <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="30">
         <v>1</v>
       </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32">
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
         <v>65</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="18">
         <v>58.2</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="18">
         <v>84.2</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="18">
         <v>88.04</v>
       </c>
     </row>
@@ -1899,22 +1862,22 @@
       <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="32">
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
         <v>63</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="18">
         <v>45.7</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="18">
         <v>66.099999999999994</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="18">
         <v>25.87</v>
       </c>
     </row>
@@ -1927,22 +1890,22 @@
       <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="E19" s="30">
+        <v>0</v>
+      </c>
+      <c r="F19" s="30">
         <v>1</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="18">
         <v>53.4</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="18">
         <v>40</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="18">
         <v>74.8</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="18">
         <v>96.77</v>
       </c>
     </row>
@@ -1957,22 +1920,22 @@
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="30">
         <v>1</v>
       </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="32">
+      <c r="F20" s="30">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
         <v>112.9</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="18">
         <v>92.3</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="18">
         <v>98</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="18">
         <v>217.99</v>
       </c>
     </row>
@@ -1985,22 +1948,22 @@
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="33">
+      <c r="E21" s="30">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
         <v>109.5</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="19">
         <v>90.4</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="19">
         <v>83.7</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="19">
         <v>218.48</v>
       </c>
     </row>
@@ -2017,22 +1980,22 @@
       <c r="D22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="34">
+      <c r="E22" s="31">
+        <v>0</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
         <v>99</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="20">
         <v>90</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="20">
         <v>91.62</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="20">
         <v>84.07</v>
       </c>
     </row>
@@ -2045,22 +2008,22 @@
       <c r="D23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35">
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
         <v>100</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="21">
         <v>91</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="21">
         <v>91.26</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="21">
         <v>128.63999999999999</v>
       </c>
     </row>
@@ -2075,22 +2038,22 @@
       <c r="D24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20">
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
         <v>1</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="21">
         <v>103</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="21">
         <v>100</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="21">
         <v>97.58</v>
       </c>
-      <c r="J24" s="56">
+      <c r="J24" s="21">
         <v>30.15</v>
       </c>
     </row>
@@ -2103,22 +2066,22 @@
       <c r="D25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="20">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="35">
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
         <v>90</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="21">
         <v>85</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="21">
         <v>94.38</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="21">
         <v>74.650000000000006</v>
       </c>
     </row>
@@ -2133,22 +2096,22 @@
       <c r="D26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="35">
+      <c r="E26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
         <v>78</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="21">
         <v>74</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="21">
         <v>100</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J26" s="21">
         <v>92.53</v>
       </c>
     </row>
@@ -2161,22 +2124,22 @@
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="20">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
-      <c r="G27" s="35">
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
         <v>102</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="21">
         <v>95</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="21">
         <v>92.27</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="21">
         <v>86.63</v>
       </c>
     </row>
@@ -2191,22 +2154,22 @@
       <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="20">
-        <v>0</v>
-      </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-      <c r="G28" s="35">
+      <c r="E28" s="32">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
         <v>95</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="21">
         <v>95</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="21">
         <v>89.84</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="21">
         <v>37.69</v>
       </c>
     </row>
@@ -2219,22 +2182,22 @@
       <c r="D29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="20">
-        <v>0</v>
-      </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="35">
+      <c r="E29" s="32">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
         <v>78</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="21">
         <v>72</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="21">
         <v>83.9</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="21">
         <v>17.73</v>
       </c>
     </row>
@@ -2247,22 +2210,22 @@
       <c r="D30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="21">
-        <v>0</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0</v>
-      </c>
-      <c r="G30" s="36">
+      <c r="E30" s="33">
+        <v>0</v>
+      </c>
+      <c r="F30" s="33">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
         <v>100</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="22">
         <v>101</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="22">
         <v>95.58</v>
       </c>
-      <c r="J30" s="57">
+      <c r="J30" s="22">
         <v>176.03</v>
       </c>
     </row>
@@ -2279,22 +2242,22 @@
       <c r="D31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="22">
-        <v>0</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="37">
+      <c r="E31" s="34">
+        <v>0</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20">
         <v>66.400000000000006</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="20">
         <v>62.2</v>
       </c>
-      <c r="I31" s="55">
+      <c r="I31" s="20">
         <v>62.2</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="20">
         <v>42</v>
       </c>
     </row>
@@ -2307,26 +2270,26 @@
       <c r="D32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="38">
+      <c r="E32" s="35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="34">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21">
         <v>77.400000000000006</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="21">
         <v>74.2</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I32" s="21">
         <v>77.400000000000006</v>
       </c>
-      <c r="J32" s="56">
+      <c r="J32" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2337,26 +2300,26 @@
       <c r="D33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="38">
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="34">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
         <v>79.099999999999994</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="21">
         <v>75.400000000000006</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="21">
         <v>75.400000000000006</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="21">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2365,26 +2328,26 @@
       <c r="D34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="36">
         <v>1</v>
       </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="38">
+      <c r="F34" s="34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
         <v>72.5</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="21">
         <v>69.900000000000006</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="21">
         <v>69.900000000000006</v>
       </c>
-      <c r="J34" s="56">
+      <c r="J34" s="21">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2393,26 +2356,26 @@
       <c r="D35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0</v>
-      </c>
-      <c r="G35" s="38">
+      <c r="E35" s="35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
         <v>85.4</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="21">
         <v>87.3</v>
       </c>
-      <c r="I35" s="56">
+      <c r="I35" s="21">
         <v>85.6</v>
       </c>
-      <c r="J35" s="56">
+      <c r="J35" s="21">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2421,26 +2384,26 @@
       <c r="D36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-      <c r="G36" s="38">
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="34">
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
         <v>73.900000000000006</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="21">
         <v>72.3</v>
       </c>
-      <c r="I36" s="56">
+      <c r="I36" s="21">
         <v>69</v>
       </c>
-      <c r="J36" s="56">
+      <c r="J36" s="21">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2451,26 +2414,26 @@
       <c r="D37" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0</v>
-      </c>
-      <c r="G37" s="38">
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="34">
+        <v>0</v>
+      </c>
+      <c r="G37" s="21">
         <v>81.8</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="21">
         <v>76.900000000000006</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I37" s="21">
         <v>76.900000000000006</v>
       </c>
-      <c r="J37" s="56">
+      <c r="J37" s="21">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2479,26 +2442,26 @@
       <c r="D38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="22">
-        <v>0</v>
-      </c>
-      <c r="G38" s="38">
+      <c r="E38" s="35">
+        <v>0</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
         <v>83.8</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="21">
         <v>78</v>
       </c>
-      <c r="I38" s="56">
+      <c r="I38" s="21">
         <v>78.599999999999994</v>
       </c>
-      <c r="J38" s="56">
+      <c r="J38" s="21">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2507,22 +2470,22 @@
       <c r="D39" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="23">
+      <c r="E39" s="35">
+        <v>0</v>
+      </c>
+      <c r="F39" s="36">
         <v>2</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="21">
         <v>82.3</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="21">
         <v>72.900000000000006</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I39" s="21">
         <v>72.900000000000006</v>
       </c>
-      <c r="J39" s="56">
+      <c r="J39" s="21">
         <v>101</v>
       </c>
     </row>
@@ -2537,22 +2500,22 @@
       <c r="D40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="23">
+      <c r="E40" s="35">
+        <v>0</v>
+      </c>
+      <c r="F40" s="36">
         <v>1</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="21">
         <v>81.7</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="21">
         <v>71.2</v>
       </c>
-      <c r="I40" s="56">
+      <c r="I40" s="21">
         <v>5.5</v>
       </c>
-      <c r="J40" s="56">
+      <c r="J40" s="21">
         <v>63</v>
       </c>
     </row>
@@ -2565,22 +2528,22 @@
       <c r="D41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="22">
-        <v>0</v>
-      </c>
-      <c r="G41" s="38">
+      <c r="E41" s="35">
+        <v>0</v>
+      </c>
+      <c r="F41" s="34">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21">
         <v>63.5</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="21">
         <v>62.1</v>
       </c>
-      <c r="I41" s="56">
+      <c r="I41" s="21">
         <v>117.1</v>
       </c>
-      <c r="J41" s="56">
+      <c r="J41" s="21">
         <v>97</v>
       </c>
     </row>
@@ -2595,26 +2558,26 @@
       <c r="D42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="36">
         <v>1</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="36">
         <v>1</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="21">
         <v>86.8</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="21">
         <v>71.900000000000006</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I42" s="21">
         <v>74.400000000000006</v>
       </c>
-      <c r="J42" s="56">
+      <c r="J42" s="21">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2625,22 +2588,22 @@
       <c r="D43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="24">
-        <v>0</v>
-      </c>
-      <c r="F43" s="30">
+      <c r="E43" s="37">
+        <v>0</v>
+      </c>
+      <c r="F43" s="38">
         <v>2</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="22">
         <v>85.6</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="22">
         <v>74.400000000000006</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I43" s="22">
         <v>71.900000000000006</v>
       </c>
-      <c r="J43" s="57">
+      <c r="J43" s="22">
         <v>139</v>
       </c>
     </row>
@@ -2657,22 +2620,22 @@
       <c r="D44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="25">
-        <v>0</v>
-      </c>
-      <c r="F44" s="25">
-        <v>0</v>
-      </c>
-      <c r="G44" s="40">
+      <c r="E44" s="23">
+        <v>0</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="39">
         <v>85</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="24">
         <v>85</v>
       </c>
-      <c r="I44" s="58">
+      <c r="I44" s="23">
         <v>100</v>
       </c>
-      <c r="J44" s="59">
+      <c r="J44" s="24">
         <v>68</v>
       </c>
     </row>
@@ -2685,22 +2648,22 @@
       <c r="D45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="25">
-        <v>0</v>
-      </c>
-      <c r="F45" s="25">
+      <c r="E45" s="23">
+        <v>0</v>
+      </c>
+      <c r="F45" s="23">
         <v>2</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="39">
         <v>91.8</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="24">
         <v>88.2</v>
       </c>
-      <c r="I45" s="58">
+      <c r="I45" s="23">
         <v>100</v>
       </c>
-      <c r="J45" s="59">
+      <c r="J45" s="24">
         <v>91</v>
       </c>
     </row>
@@ -2715,22 +2678,22 @@
       <c r="D46" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="25">
-        <v>0</v>
-      </c>
-      <c r="F46" s="25">
-        <v>0</v>
-      </c>
-      <c r="G46" s="40">
+      <c r="E46" s="23">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="39">
         <v>93.4</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="24">
         <v>88.7</v>
       </c>
-      <c r="I46" s="58">
+      <c r="I46" s="23">
         <v>100</v>
       </c>
-      <c r="J46" s="59">
+      <c r="J46" s="24">
         <v>69</v>
       </c>
     </row>
@@ -2743,22 +2706,22 @@
       <c r="D47" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="23">
         <v>1</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="23">
         <v>1</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="39">
         <v>122.9</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="24">
         <v>101.9</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="23">
         <v>100</v>
       </c>
-      <c r="J47" s="59">
+      <c r="J47" s="24">
         <v>78</v>
       </c>
     </row>
@@ -2773,22 +2736,22 @@
       <c r="D48" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="23">
         <v>1</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="23">
         <v>1</v>
       </c>
-      <c r="G48" s="40">
+      <c r="G48" s="39">
         <v>79.3</v>
       </c>
-      <c r="H48" s="48">
+      <c r="H48" s="24">
         <v>80</v>
       </c>
-      <c r="I48" s="58">
+      <c r="I48" s="23">
         <v>100</v>
       </c>
-      <c r="J48" s="59">
+      <c r="J48" s="24">
         <v>79</v>
       </c>
     </row>
@@ -2801,22 +2764,22 @@
       <c r="D49" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="25">
-        <v>0</v>
-      </c>
-      <c r="F49" s="25">
-        <v>0</v>
-      </c>
-      <c r="G49" s="40">
+      <c r="E49" s="23">
+        <v>0</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0</v>
+      </c>
+      <c r="G49" s="39">
         <v>68.8</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="24">
         <v>71.5</v>
       </c>
-      <c r="I49" s="58">
+      <c r="I49" s="23">
         <v>100</v>
       </c>
-      <c r="J49" s="59">
+      <c r="J49" s="24">
         <v>144</v>
       </c>
     </row>
@@ -2831,22 +2794,22 @@
       <c r="D50" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="25">
-        <v>0</v>
-      </c>
-      <c r="F50" s="25">
-        <v>0</v>
-      </c>
-      <c r="G50" s="40">
+      <c r="E50" s="23">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="39">
         <v>77</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="24">
         <v>65.2</v>
       </c>
-      <c r="I50" s="58">
+      <c r="I50" s="23">
         <v>100</v>
       </c>
-      <c r="J50" s="59">
+      <c r="J50" s="24">
         <v>139</v>
       </c>
     </row>
@@ -2859,22 +2822,22 @@
       <c r="D51" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="25">
-        <v>0</v>
-      </c>
-      <c r="F51" s="25">
-        <v>0</v>
-      </c>
-      <c r="G51" s="40">
+      <c r="E51" s="23">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="39">
         <v>102</v>
       </c>
-      <c r="H51" s="48">
+      <c r="H51" s="24">
         <v>84.9</v>
       </c>
-      <c r="I51" s="58">
+      <c r="I51" s="23">
         <v>100</v>
       </c>
-      <c r="J51" s="59">
+      <c r="J51" s="24">
         <v>125</v>
       </c>
     </row>
@@ -2889,22 +2852,22 @@
       <c r="D52" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="25">
-        <v>0</v>
-      </c>
-      <c r="F52" s="25">
-        <v>0</v>
-      </c>
-      <c r="G52" s="40">
+      <c r="E52" s="23">
+        <v>0</v>
+      </c>
+      <c r="F52" s="23">
+        <v>0</v>
+      </c>
+      <c r="G52" s="39">
         <v>96.2</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="24">
         <v>99.2</v>
       </c>
-      <c r="I52" s="58">
+      <c r="I52" s="23">
         <v>100</v>
       </c>
-      <c r="J52" s="59">
+      <c r="J52" s="24">
         <v>103</v>
       </c>
     </row>
@@ -2917,22 +2880,22 @@
       <c r="D53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="25">
-        <v>0</v>
-      </c>
-      <c r="F53" s="25">
-        <v>0</v>
-      </c>
-      <c r="G53" s="40">
+      <c r="E53" s="23">
+        <v>0</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0</v>
+      </c>
+      <c r="G53" s="39">
         <v>64.8</v>
       </c>
-      <c r="H53" s="48">
+      <c r="H53" s="24">
         <v>70.400000000000006</v>
       </c>
-      <c r="I53" s="58">
+      <c r="I53" s="23">
         <v>100</v>
       </c>
-      <c r="J53" s="59">
+      <c r="J53" s="24">
         <v>154</v>
       </c>
     </row>
@@ -2949,22 +2912,22 @@
       <c r="D54" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E54" s="25">
         <v>1</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="25">
         <v>1</v>
       </c>
-      <c r="G54" s="41">
+      <c r="G54" s="40">
         <v>85.1</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H54" s="26">
         <v>75.3</v>
       </c>
-      <c r="I54" s="60">
+      <c r="I54" s="25">
         <v>98.4</v>
       </c>
-      <c r="J54" s="61">
+      <c r="J54" s="26">
         <v>28.83</v>
       </c>
     </row>
@@ -2977,22 +2940,22 @@
       <c r="D55" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="26">
+      <c r="E55" s="41">
+        <v>0</v>
+      </c>
+      <c r="F55" s="25">
         <v>1</v>
       </c>
-      <c r="G55" s="41">
+      <c r="G55" s="40">
         <v>71</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H55" s="26">
         <v>58.3</v>
       </c>
-      <c r="I55" s="60">
+      <c r="I55" s="25">
         <v>82.7</v>
       </c>
-      <c r="J55" s="61">
+      <c r="J55" s="26">
         <v>38.61</v>
       </c>
     </row>
@@ -3007,22 +2970,22 @@
       <c r="D56" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="41">
+      <c r="E56" s="41">
+        <v>0</v>
+      </c>
+      <c r="F56" s="41">
+        <v>0</v>
+      </c>
+      <c r="G56" s="40">
         <v>89.5</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="26">
         <v>74.5</v>
       </c>
-      <c r="I56" s="60">
+      <c r="I56" s="25">
         <v>55</v>
       </c>
-      <c r="J56" s="61">
+      <c r="J56" s="26">
         <v>33.450000000000003</v>
       </c>
     </row>
@@ -3037,22 +3000,22 @@
       <c r="D57" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="41">
+      <c r="E57" s="41">
+        <v>0</v>
+      </c>
+      <c r="F57" s="41">
+        <v>0</v>
+      </c>
+      <c r="G57" s="40">
         <v>94.6</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H57" s="26">
         <v>91.2</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I57" s="27">
         <v>95.7</v>
       </c>
-      <c r="J57" s="61">
+      <c r="J57" s="26">
         <v>93.8</v>
       </c>
     </row>
@@ -3067,22 +3030,22 @@
       <c r="D58" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="41">
+      <c r="E58" s="41">
+        <v>0</v>
+      </c>
+      <c r="F58" s="41">
+        <v>0</v>
+      </c>
+      <c r="G58" s="40">
         <v>87.1</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H58" s="26">
         <v>81.900000000000006</v>
       </c>
-      <c r="I58" s="62">
+      <c r="I58" s="27">
         <v>98.5</v>
       </c>
-      <c r="J58" s="61">
+      <c r="J58" s="26">
         <v>84.45</v>
       </c>
     </row>
@@ -3097,22 +3060,22 @@
       <c r="D59" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="41">
+        <v>0</v>
+      </c>
+      <c r="F59" s="41">
         <v>1</v>
       </c>
-      <c r="G59" s="41">
+      <c r="G59" s="40">
         <v>89.5</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H59" s="26">
         <v>89.5</v>
       </c>
-      <c r="I59" s="62">
+      <c r="I59" s="27">
         <v>99.6</v>
       </c>
-      <c r="J59" s="61">
+      <c r="J59" s="26">
         <v>103.38</v>
       </c>
     </row>
@@ -3127,22 +3090,22 @@
       <c r="D60" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60" s="41">
+        <v>0</v>
+      </c>
+      <c r="F60" s="41">
         <v>1</v>
       </c>
-      <c r="G60" s="41">
+      <c r="G60" s="40">
         <v>99.1</v>
       </c>
-      <c r="H60" s="49">
+      <c r="H60" s="26">
         <v>95.7</v>
       </c>
-      <c r="I60" s="62">
+      <c r="I60" s="27">
         <v>98.6</v>
       </c>
-      <c r="J60" s="61">
+      <c r="J60" s="26">
         <v>49.61</v>
       </c>
     </row>
@@ -3155,22 +3118,22 @@
       <c r="D61" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="41">
+      <c r="E61" s="41">
+        <v>0</v>
+      </c>
+      <c r="F61" s="41">
+        <v>0</v>
+      </c>
+      <c r="G61" s="40">
         <v>83</v>
       </c>
-      <c r="H61" s="49">
+      <c r="H61" s="26">
         <v>74</v>
       </c>
-      <c r="I61" s="62">
+      <c r="I61" s="27">
         <v>91.9</v>
       </c>
-      <c r="J61" s="61">
+      <c r="J61" s="26">
         <v>38.130000000000003</v>
       </c>
     </row>
@@ -3185,22 +3148,22 @@
       <c r="D62" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="41">
+      <c r="E62" s="41">
+        <v>0</v>
+      </c>
+      <c r="F62" s="41">
+        <v>0</v>
+      </c>
+      <c r="G62" s="40">
         <v>108.2</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="26">
         <v>98.6</v>
       </c>
-      <c r="I62" s="62">
+      <c r="I62" s="27">
         <v>88.6</v>
       </c>
-      <c r="J62" s="61">
+      <c r="J62" s="26">
         <v>79.84</v>
       </c>
     </row>
@@ -3213,22 +3176,22 @@
       <c r="D63" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="41">
+      <c r="E63" s="41">
+        <v>0</v>
+      </c>
+      <c r="F63" s="41">
+        <v>0</v>
+      </c>
+      <c r="G63" s="40">
         <v>99.4</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63" s="26">
         <v>90.2</v>
       </c>
-      <c r="I63" s="62">
+      <c r="I63" s="27">
         <v>99.8</v>
       </c>
-      <c r="J63" s="61">
+      <c r="J63" s="26">
         <v>61.81</v>
       </c>
     </row>
@@ -3243,22 +3206,22 @@
       <c r="D64" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="41">
         <v>1</v>
       </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="41">
+      <c r="F64" s="41">
+        <v>0</v>
+      </c>
+      <c r="G64" s="40">
         <v>104.3</v>
       </c>
-      <c r="H64" s="50">
+      <c r="H64" s="42">
         <v>86.5</v>
       </c>
-      <c r="I64" s="62">
+      <c r="I64" s="27">
         <v>56</v>
       </c>
-      <c r="J64" s="61">
+      <c r="J64" s="26">
         <v>35.71</v>
       </c>
     </row>
@@ -3271,22 +3234,22 @@
       <c r="D65" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="41">
         <v>3</v>
       </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="41">
+      <c r="F65" s="41">
+        <v>0</v>
+      </c>
+      <c r="G65" s="40">
         <v>135.19999999999999</v>
       </c>
-      <c r="H65" s="50">
+      <c r="H65" s="42">
         <v>74.7</v>
       </c>
-      <c r="I65" s="62">
+      <c r="I65" s="27">
         <v>72.900000000000006</v>
       </c>
-      <c r="J65" s="61">
+      <c r="J65" s="26">
         <v>64.92</v>
       </c>
     </row>
@@ -3303,22 +3266,22 @@
       <c r="D66" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="41">
+      <c r="E66" s="41">
+        <v>0</v>
+      </c>
+      <c r="F66" s="41">
+        <v>0</v>
+      </c>
+      <c r="G66" s="40">
         <v>70.8</v>
       </c>
-      <c r="H66" s="50">
+      <c r="H66" s="42">
         <v>65.8</v>
       </c>
-      <c r="I66" s="62">
+      <c r="I66" s="27">
         <v>84.3</v>
       </c>
-      <c r="J66" s="61">
+      <c r="J66" s="26">
         <v>85</v>
       </c>
     </row>
@@ -3331,22 +3294,22 @@
       <c r="D67" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="41">
+      <c r="E67" s="41">
+        <v>0</v>
+      </c>
+      <c r="F67" s="41">
+        <v>0</v>
+      </c>
+      <c r="G67" s="40">
         <v>86.7</v>
       </c>
-      <c r="H67" s="50">
+      <c r="H67" s="42">
         <v>77</v>
       </c>
-      <c r="I67" s="62">
+      <c r="I67" s="27">
         <v>88.8</v>
       </c>
-      <c r="J67" s="61">
+      <c r="J67" s="26">
         <v>43</v>
       </c>
     </row>
@@ -3361,22 +3324,22 @@
       <c r="D68" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="41">
+      <c r="E68" s="41">
+        <v>0</v>
+      </c>
+      <c r="F68" s="41">
+        <v>0</v>
+      </c>
+      <c r="G68" s="40">
         <v>74.599999999999994</v>
       </c>
-      <c r="H68" s="50">
+      <c r="H68" s="42">
         <v>59.6</v>
       </c>
-      <c r="I68" s="62">
+      <c r="I68" s="27">
         <v>100</v>
       </c>
-      <c r="J68" s="61">
+      <c r="J68" s="26">
         <v>169</v>
       </c>
     </row>
@@ -3391,22 +3354,22 @@
       <c r="D69" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="41">
+      <c r="E69" s="41">
+        <v>0</v>
+      </c>
+      <c r="F69" s="41">
+        <v>0</v>
+      </c>
+      <c r="G69" s="40">
         <v>93.9</v>
       </c>
-      <c r="H69" s="50">
+      <c r="H69" s="42">
         <v>92.1</v>
       </c>
-      <c r="I69" s="62">
+      <c r="I69" s="27">
         <v>98</v>
       </c>
-      <c r="J69" s="61">
+      <c r="J69" s="26">
         <v>77</v>
       </c>
     </row>
@@ -3419,22 +3382,22 @@
       <c r="D70" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="41">
+      <c r="E70" s="41">
+        <v>0</v>
+      </c>
+      <c r="F70" s="41">
+        <v>0</v>
+      </c>
+      <c r="G70" s="40">
         <v>75.5</v>
       </c>
-      <c r="H70" s="50">
+      <c r="H70" s="42">
         <v>73.5</v>
       </c>
-      <c r="I70" s="62">
+      <c r="I70" s="27">
         <v>90.5</v>
       </c>
-      <c r="J70" s="61">
+      <c r="J70" s="26">
         <v>98</v>
       </c>
     </row>
@@ -3449,22 +3412,22 @@
       <c r="D71" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="41">
+      <c r="E71" s="41">
+        <v>0</v>
+      </c>
+      <c r="F71" s="41">
+        <v>0</v>
+      </c>
+      <c r="G71" s="40">
         <v>66.5</v>
       </c>
-      <c r="H71" s="50">
+      <c r="H71" s="42">
         <v>67.5</v>
       </c>
-      <c r="I71" s="62">
+      <c r="I71" s="27">
         <v>78.7</v>
       </c>
-      <c r="J71" s="61">
+      <c r="J71" s="26">
         <v>42</v>
       </c>
     </row>
@@ -3477,22 +3440,22 @@
       <c r="D72" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="41">
+      <c r="E72" s="41">
+        <v>0</v>
+      </c>
+      <c r="F72" s="41">
+        <v>0</v>
+      </c>
+      <c r="G72" s="40">
         <v>75.2</v>
       </c>
-      <c r="H72" s="50">
+      <c r="H72" s="42">
         <v>80.3</v>
       </c>
-      <c r="I72" s="62">
+      <c r="I72" s="27">
         <v>100</v>
       </c>
-      <c r="J72" s="61">
+      <c r="J72" s="26">
         <v>101</v>
       </c>
     </row>
@@ -3507,22 +3470,22 @@
       <c r="D73" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="E73" s="41">
+        <v>0</v>
+      </c>
+      <c r="F73" s="41">
         <v>1</v>
       </c>
-      <c r="G73" s="41">
+      <c r="G73" s="40">
         <v>79.3</v>
       </c>
-      <c r="H73" s="50">
+      <c r="H73" s="42">
         <v>73</v>
       </c>
-      <c r="I73" s="62">
+      <c r="I73" s="27">
         <v>92.1</v>
       </c>
-      <c r="J73" s="61">
+      <c r="J73" s="26">
         <v>40</v>
       </c>
     </row>
@@ -3535,22 +3498,22 @@
       <c r="D74" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="41">
+      <c r="E74" s="41">
+        <v>0</v>
+      </c>
+      <c r="F74" s="41">
+        <v>0</v>
+      </c>
+      <c r="G74" s="40">
         <v>76.599999999999994</v>
       </c>
-      <c r="H74" s="50">
+      <c r="H74" s="42">
         <v>70.599999999999994</v>
       </c>
-      <c r="I74" s="62">
+      <c r="I74" s="27">
         <v>65.099999999999994</v>
       </c>
-      <c r="J74" s="61">
+      <c r="J74" s="26">
         <v>15</v>
       </c>
     </row>
@@ -3565,22 +3528,22 @@
       <c r="D75" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75" s="41">
+        <v>0</v>
+      </c>
+      <c r="F75" s="41">
         <v>1</v>
       </c>
-      <c r="G75" s="41">
+      <c r="G75" s="40">
         <v>85.3</v>
       </c>
-      <c r="H75" s="50">
+      <c r="H75" s="42">
         <v>80</v>
       </c>
-      <c r="I75" s="62">
+      <c r="I75" s="27">
         <v>93</v>
       </c>
-      <c r="J75" s="61">
+      <c r="J75" s="26">
         <v>69</v>
       </c>
     </row>
@@ -3593,20 +3556,20 @@
       <c r="D76" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="41">
+      <c r="E76" s="41">
+        <v>0</v>
+      </c>
+      <c r="F76" s="41"/>
+      <c r="G76" s="40">
         <v>77.7</v>
       </c>
-      <c r="H76" s="50">
+      <c r="H76" s="42">
         <v>73</v>
       </c>
-      <c r="I76" s="62">
+      <c r="I76" s="27">
         <v>86.77</v>
       </c>
-      <c r="J76" s="61">
+      <c r="J76" s="26">
         <v>16</v>
       </c>
     </row>
@@ -3621,22 +3584,22 @@
       <c r="D77" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77" s="41">
+        <v>0</v>
+      </c>
+      <c r="F77" s="41">
         <v>2</v>
       </c>
-      <c r="G77" s="41">
+      <c r="G77" s="40">
         <v>92</v>
       </c>
-      <c r="H77" s="50">
+      <c r="H77" s="42">
         <v>88.3</v>
       </c>
-      <c r="I77" s="62">
+      <c r="I77" s="27">
         <v>96.1</v>
       </c>
-      <c r="J77" s="61">
+      <c r="J77" s="26">
         <v>143</v>
       </c>
     </row>
@@ -3649,22 +3612,22 @@
       <c r="D78" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="41">
+        <v>0</v>
+      </c>
+      <c r="F78" s="41">
         <v>2</v>
       </c>
-      <c r="G78" s="41">
+      <c r="G78" s="40">
         <v>79.3</v>
       </c>
-      <c r="H78" s="50">
+      <c r="H78" s="42">
         <v>74.599999999999994</v>
       </c>
-      <c r="I78" s="62">
+      <c r="I78" s="27">
         <v>91.9</v>
       </c>
-      <c r="J78" s="61">
+      <c r="J78" s="26">
         <v>128</v>
       </c>
     </row>
@@ -3681,22 +3644,22 @@
       <c r="D79" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="41">
         <v>2</v>
       </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="41">
+      <c r="F79" s="41">
+        <v>0</v>
+      </c>
+      <c r="G79" s="40">
         <v>98.1</v>
       </c>
-      <c r="H79" s="50">
+      <c r="H79" s="42">
         <v>89.9</v>
       </c>
-      <c r="I79" s="62">
+      <c r="I79" s="27">
         <v>84.4</v>
       </c>
-      <c r="J79" s="61">
+      <c r="J79" s="26">
         <v>49.3</v>
       </c>
     </row>
@@ -3709,22 +3672,22 @@
       <c r="D80" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="41">
+      <c r="E80" s="41">
+        <v>0</v>
+      </c>
+      <c r="F80" s="41">
+        <v>0</v>
+      </c>
+      <c r="G80" s="40">
         <v>77</v>
       </c>
-      <c r="H80" s="50">
+      <c r="H80" s="42">
         <v>81.599999999999994</v>
       </c>
-      <c r="I80" s="62">
+      <c r="I80" s="27">
         <v>91.9</v>
       </c>
-      <c r="J80" s="61">
+      <c r="J80" s="26">
         <v>11.5</v>
       </c>
     </row>
@@ -3737,22 +3700,22 @@
       <c r="D81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="41">
+      <c r="E81" s="41">
+        <v>0</v>
+      </c>
+      <c r="F81" s="41">
+        <v>0</v>
+      </c>
+      <c r="G81" s="40">
         <v>87.4</v>
       </c>
-      <c r="H81" s="50">
+      <c r="H81" s="42">
         <v>81.599999999999994</v>
       </c>
-      <c r="I81" s="62">
+      <c r="I81" s="27">
         <v>1100</v>
       </c>
-      <c r="J81" s="61">
+      <c r="J81" s="26">
         <v>125.9</v>
       </c>
     </row>
@@ -3767,22 +3730,22 @@
       <c r="D82" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="41">
+      <c r="E82" s="41">
+        <v>0</v>
+      </c>
+      <c r="F82" s="41">
+        <v>0</v>
+      </c>
+      <c r="G82" s="40">
         <v>94.5</v>
       </c>
-      <c r="H82" s="50">
+      <c r="H82" s="42">
         <v>91.2</v>
       </c>
-      <c r="I82" s="62">
+      <c r="I82" s="27">
         <v>94.6</v>
       </c>
-      <c r="J82" s="61">
+      <c r="J82" s="26">
         <v>132.4</v>
       </c>
     </row>
@@ -3795,22 +3758,22 @@
       <c r="D83" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="41">
+      <c r="E83" s="41">
+        <v>0</v>
+      </c>
+      <c r="F83" s="41">
+        <v>0</v>
+      </c>
+      <c r="G83" s="40">
         <v>89.5</v>
       </c>
-      <c r="H83" s="50">
+      <c r="H83" s="42">
         <v>81.900000000000006</v>
       </c>
-      <c r="I83" s="62">
+      <c r="I83" s="27">
         <v>92.5</v>
       </c>
-      <c r="J83" s="61">
+      <c r="J83" s="26">
         <v>102.9</v>
       </c>
     </row>
@@ -3825,22 +3788,22 @@
       <c r="D84" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="41">
+      <c r="E84" s="41">
+        <v>0</v>
+      </c>
+      <c r="F84" s="41">
+        <v>0</v>
+      </c>
+      <c r="G84" s="40">
         <v>52.8</v>
       </c>
-      <c r="H84" s="50">
+      <c r="H84" s="42">
         <v>62.7</v>
       </c>
-      <c r="I84" s="62">
+      <c r="I84" s="27">
         <v>100</v>
       </c>
-      <c r="J84" s="61">
+      <c r="J84" s="26">
         <v>104.5</v>
       </c>
     </row>
@@ -3855,22 +3818,22 @@
       <c r="D85" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="41">
+      <c r="E85" s="41">
+        <v>0</v>
+      </c>
+      <c r="F85" s="41">
+        <v>0</v>
+      </c>
+      <c r="G85" s="40">
         <v>88</v>
       </c>
-      <c r="H85" s="50">
+      <c r="H85" s="42">
         <v>83.8</v>
       </c>
-      <c r="I85" s="62">
+      <c r="I85" s="27">
         <v>92.1</v>
       </c>
-      <c r="J85" s="61">
+      <c r="J85" s="26">
         <v>72.5</v>
       </c>
     </row>
@@ -3885,22 +3848,22 @@
       <c r="D86" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="41">
+      <c r="E86" s="41">
+        <v>0</v>
+      </c>
+      <c r="F86" s="41">
+        <v>0</v>
+      </c>
+      <c r="G86" s="40">
         <v>100.5</v>
       </c>
-      <c r="H86" s="50">
+      <c r="H86" s="42">
         <v>98.5</v>
       </c>
-      <c r="I86" s="62">
+      <c r="I86" s="27">
         <v>91.4</v>
       </c>
-      <c r="J86" s="61">
+      <c r="J86" s="26">
         <v>71.099999999999994</v>
       </c>
     </row>
@@ -3913,22 +3876,22 @@
       <c r="D87" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="41">
+      <c r="E87" s="41">
+        <v>0</v>
+      </c>
+      <c r="F87" s="41">
+        <v>0</v>
+      </c>
+      <c r="G87" s="40">
         <v>98.5</v>
       </c>
-      <c r="H87" s="50">
+      <c r="H87" s="42">
         <v>92.5</v>
       </c>
-      <c r="I87" s="62">
+      <c r="I87" s="27">
         <v>36.4</v>
       </c>
-      <c r="J87" s="61">
+      <c r="J87" s="26">
         <v>44.6</v>
       </c>
     </row>
@@ -3943,22 +3906,22 @@
       <c r="D88" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E88" s="41">
+        <v>0</v>
+      </c>
+      <c r="F88" s="41">
         <v>1</v>
       </c>
-      <c r="G88" s="41">
+      <c r="G88" s="40">
         <v>92.1</v>
       </c>
-      <c r="H88" s="50">
+      <c r="H88" s="42">
         <v>87</v>
       </c>
-      <c r="I88" s="62">
+      <c r="I88" s="27">
         <v>98.9</v>
       </c>
-      <c r="J88" s="61">
+      <c r="J88" s="26">
         <v>177.4</v>
       </c>
     </row>
@@ -3971,22 +3934,22 @@
       <c r="D89" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="41">
+      <c r="E89" s="41">
+        <v>0</v>
+      </c>
+      <c r="F89" s="41">
+        <v>0</v>
+      </c>
+      <c r="G89" s="40">
         <v>77.599999999999994</v>
       </c>
-      <c r="H89" s="50">
+      <c r="H89" s="42">
         <v>70.599999999999994</v>
       </c>
-      <c r="I89" s="62">
+      <c r="I89" s="27">
         <v>90.7</v>
       </c>
-      <c r="J89" s="61">
+      <c r="J89" s="26">
         <v>88.8</v>
       </c>
     </row>
@@ -4001,22 +3964,22 @@
       <c r="D90" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="41">
+      <c r="E90" s="41">
+        <v>0</v>
+      </c>
+      <c r="F90" s="41">
+        <v>0</v>
+      </c>
+      <c r="G90" s="40">
         <v>84</v>
       </c>
-      <c r="H90" s="50">
+      <c r="H90" s="42">
         <v>77.599999999999994</v>
       </c>
-      <c r="I90" s="62">
+      <c r="I90" s="27">
         <v>92.3</v>
       </c>
-      <c r="J90" s="61">
+      <c r="J90" s="26">
         <v>97.3</v>
       </c>
     </row>
@@ -4029,22 +3992,22 @@
       <c r="D91" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="41">
+      <c r="E91" s="41">
+        <v>0</v>
+      </c>
+      <c r="F91" s="41">
+        <v>0</v>
+      </c>
+      <c r="G91" s="40">
         <v>84.1</v>
       </c>
-      <c r="H91" s="50">
+      <c r="H91" s="42">
         <v>73.7</v>
       </c>
-      <c r="I91" s="62">
+      <c r="I91" s="27">
         <v>87</v>
       </c>
-      <c r="J91" s="61">
+      <c r="J91" s="26">
         <v>50</v>
       </c>
     </row>
@@ -4059,22 +4022,22 @@
       <c r="D92" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="41">
         <v>1</v>
       </c>
-      <c r="F92" s="3">
-        <v>0</v>
-      </c>
-      <c r="G92" s="41">
+      <c r="F92" s="41">
+        <v>0</v>
+      </c>
+      <c r="G92" s="40">
         <v>88.8</v>
       </c>
-      <c r="H92" s="50">
+      <c r="H92" s="42">
         <v>85.6</v>
       </c>
-      <c r="I92" s="62">
+      <c r="I92" s="27">
         <v>97.1</v>
       </c>
-      <c r="J92" s="61">
+      <c r="J92" s="26">
         <v>98.2</v>
       </c>
     </row>
@@ -4087,22 +4050,22 @@
       <c r="D93" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="41">
         <v>1</v>
       </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="41">
+      <c r="F93" s="41">
+        <v>0</v>
+      </c>
+      <c r="G93" s="40">
         <v>96.7</v>
       </c>
-      <c r="H93" s="50">
+      <c r="H93" s="42">
         <v>92.9</v>
       </c>
-      <c r="I93" s="62">
+      <c r="I93" s="27">
         <v>94.4</v>
       </c>
-      <c r="J93" s="61">
+      <c r="J93" s="26">
         <v>103.8</v>
       </c>
     </row>
@@ -4117,22 +4080,22 @@
       <c r="D94" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="41">
+      <c r="E94" s="41">
+        <v>0</v>
+      </c>
+      <c r="F94" s="41">
+        <v>0</v>
+      </c>
+      <c r="G94" s="40">
         <v>87.5</v>
       </c>
-      <c r="H94" s="50">
+      <c r="H94" s="42">
         <v>83.4</v>
       </c>
-      <c r="I94" s="62">
+      <c r="I94" s="27">
         <v>83</v>
       </c>
-      <c r="J94" s="61">
+      <c r="J94" s="26">
         <v>83.4</v>
       </c>
     </row>
@@ -4145,22 +4108,22 @@
       <c r="D95" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="G95" s="41">
+      <c r="E95" s="41">
+        <v>0</v>
+      </c>
+      <c r="F95" s="41">
+        <v>0</v>
+      </c>
+      <c r="G95" s="40">
         <v>94.3</v>
       </c>
-      <c r="H95" s="50">
+      <c r="H95" s="42">
         <v>86.1</v>
       </c>
-      <c r="I95" s="62">
+      <c r="I95" s="27">
         <v>98.3</v>
       </c>
-      <c r="J95" s="61">
+      <c r="J95" s="26">
         <v>92.8</v>
       </c>
     </row>
@@ -4175,22 +4138,22 @@
       <c r="D96" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="41">
+      <c r="E96" s="41">
+        <v>0</v>
+      </c>
+      <c r="F96" s="41">
+        <v>0</v>
+      </c>
+      <c r="G96" s="40">
         <v>96.2</v>
       </c>
-      <c r="H96" s="50">
+      <c r="H96" s="42">
         <v>91.1</v>
       </c>
-      <c r="I96" s="62">
+      <c r="I96" s="27">
         <v>100</v>
       </c>
-      <c r="J96" s="61">
+      <c r="J96" s="26">
         <v>44.7</v>
       </c>
     </row>
@@ -4203,22 +4166,22 @@
       <c r="D97" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-      <c r="G97" s="41">
+      <c r="E97" s="41">
+        <v>0</v>
+      </c>
+      <c r="F97" s="41">
+        <v>0</v>
+      </c>
+      <c r="G97" s="40">
         <v>66.2</v>
       </c>
-      <c r="H97" s="50">
+      <c r="H97" s="42">
         <v>66.599999999999994</v>
       </c>
-      <c r="I97" s="62">
+      <c r="I97" s="27">
         <v>67.7</v>
       </c>
-      <c r="J97" s="61">
+      <c r="J97" s="26">
         <v>59</v>
       </c>
     </row>
@@ -4231,22 +4194,22 @@
       <c r="D98" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="41">
+      <c r="E98" s="41">
+        <v>0</v>
+      </c>
+      <c r="F98" s="41">
+        <v>0</v>
+      </c>
+      <c r="G98" s="40">
         <v>103.8</v>
       </c>
-      <c r="H98" s="50">
+      <c r="H98" s="42">
         <v>98.1</v>
       </c>
-      <c r="I98" s="62">
+      <c r="I98" s="27">
         <v>100</v>
       </c>
-      <c r="J98" s="61">
+      <c r="J98" s="26">
         <v>101.9</v>
       </c>
     </row>
@@ -4263,22 +4226,22 @@
       <c r="D99" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="E99" s="41">
+        <v>0</v>
+      </c>
+      <c r="F99" s="41">
         <v>1</v>
       </c>
-      <c r="G99" s="42">
+      <c r="G99" s="43">
         <v>89.2</v>
       </c>
-      <c r="H99" s="51">
+      <c r="H99" s="44">
         <v>83.7</v>
       </c>
-      <c r="I99" s="63">
+      <c r="I99" s="45">
         <v>92.6</v>
       </c>
-      <c r="J99" s="64">
+      <c r="J99" s="46">
         <v>81.3</v>
       </c>
     </row>
@@ -4291,22 +4254,22 @@
       <c r="D100" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="41">
         <v>1</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="41">
         <v>1</v>
       </c>
-      <c r="G100" s="42">
+      <c r="G100" s="43">
         <v>84.1</v>
       </c>
-      <c r="H100" s="51">
+      <c r="H100" s="44">
         <v>76.400000000000006</v>
       </c>
-      <c r="I100" s="63">
+      <c r="I100" s="45">
         <v>85.5</v>
       </c>
-      <c r="J100" s="65">
+      <c r="J100" s="47">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -4321,22 +4284,22 @@
       <c r="D101" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="42">
+      <c r="E101" s="41">
+        <v>0</v>
+      </c>
+      <c r="F101" s="41">
+        <v>0</v>
+      </c>
+      <c r="G101" s="43">
         <v>87</v>
       </c>
-      <c r="H101" s="51">
+      <c r="H101" s="44">
         <v>84.5</v>
       </c>
-      <c r="I101" s="63">
+      <c r="I101" s="45">
         <v>97.2</v>
       </c>
-      <c r="J101" s="66">
+      <c r="J101" s="48">
         <v>125</v>
       </c>
     </row>
@@ -4349,22 +4312,22 @@
       <c r="D102" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="42">
+      <c r="E102" s="41">
+        <v>0</v>
+      </c>
+      <c r="F102" s="41">
+        <v>0</v>
+      </c>
+      <c r="G102" s="43">
         <v>97.1</v>
       </c>
-      <c r="H102" s="51">
+      <c r="H102" s="44">
         <v>95.4</v>
       </c>
-      <c r="I102" s="63">
+      <c r="I102" s="45">
         <v>98.3</v>
       </c>
-      <c r="J102" s="67">
+      <c r="J102" s="49">
         <v>83.3</v>
       </c>
     </row>
@@ -4379,22 +4342,22 @@
       <c r="D103" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="E103" s="41">
+        <v>0</v>
+      </c>
+      <c r="F103" s="41">
         <v>1</v>
       </c>
-      <c r="G103" s="42">
+      <c r="G103" s="43">
         <v>89.7</v>
       </c>
-      <c r="H103" s="51">
+      <c r="H103" s="44">
         <v>89.2</v>
       </c>
-      <c r="I103" s="63">
+      <c r="I103" s="45">
         <v>100</v>
       </c>
-      <c r="J103" s="68">
+      <c r="J103" s="50">
         <v>91.7</v>
       </c>
     </row>
@@ -4407,22 +4370,22 @@
       <c r="D104" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0</v>
-      </c>
-      <c r="G104" s="42">
+      <c r="E104" s="41">
+        <v>0</v>
+      </c>
+      <c r="F104" s="41">
+        <v>0</v>
+      </c>
+      <c r="G104" s="43">
         <v>94</v>
       </c>
-      <c r="H104" s="51">
+      <c r="H104" s="44">
         <v>95.9</v>
       </c>
-      <c r="I104" s="63">
+      <c r="I104" s="45">
         <v>100</v>
       </c>
-      <c r="J104" s="68">
+      <c r="J104" s="50">
         <v>38.1</v>
       </c>
     </row>
@@ -4437,22 +4400,22 @@
       <c r="D105" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="E105" s="41">
+        <v>0</v>
+      </c>
+      <c r="F105" s="41">
         <v>1</v>
       </c>
-      <c r="G105" s="42">
+      <c r="G105" s="43">
         <v>94.8</v>
       </c>
-      <c r="H105" s="51">
+      <c r="H105" s="44">
         <v>83</v>
       </c>
-      <c r="I105" s="63">
+      <c r="I105" s="45">
         <v>94.8</v>
       </c>
-      <c r="J105" s="68">
+      <c r="J105" s="50">
         <v>80.7</v>
       </c>
     </row>
@@ -4465,22 +4428,22 @@
       <c r="D106" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3">
-        <v>0</v>
-      </c>
-      <c r="G106" s="42">
+      <c r="E106" s="41">
+        <v>0</v>
+      </c>
+      <c r="F106" s="41">
+        <v>0</v>
+      </c>
+      <c r="G106" s="43">
         <v>97.6</v>
       </c>
-      <c r="H106" s="51">
+      <c r="H106" s="44">
         <v>90.9</v>
       </c>
-      <c r="I106" s="63">
+      <c r="I106" s="45">
         <v>94.4</v>
       </c>
-      <c r="J106" s="68">
+      <c r="J106" s="50">
         <v>85.1</v>
       </c>
     </row>
@@ -4493,22 +4456,22 @@
       <c r="D107" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E107" s="3">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3">
-        <v>0</v>
-      </c>
-      <c r="G107" s="43">
+      <c r="E107" s="41">
+        <v>0</v>
+      </c>
+      <c r="F107" s="41">
+        <v>0</v>
+      </c>
+      <c r="G107" s="51">
         <v>100</v>
       </c>
-      <c r="H107" s="51">
+      <c r="H107" s="44">
         <v>87.4</v>
       </c>
-      <c r="I107" s="63">
+      <c r="I107" s="45">
         <v>100</v>
       </c>
-      <c r="J107" s="68">
+      <c r="J107" s="50">
         <v>29.1</v>
       </c>
     </row>
@@ -4521,22 +4484,22 @@
       <c r="D108" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E108" s="3">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3">
-        <v>0</v>
-      </c>
-      <c r="G108" s="44">
+      <c r="E108" s="41">
+        <v>0</v>
+      </c>
+      <c r="F108" s="41">
+        <v>0</v>
+      </c>
+      <c r="G108" s="52">
         <v>113.7</v>
       </c>
-      <c r="H108" s="51">
+      <c r="H108" s="44">
         <v>96.7</v>
       </c>
-      <c r="I108" s="63">
+      <c r="I108" s="45">
         <v>85</v>
       </c>
-      <c r="J108" s="68">
+      <c r="J108" s="50">
         <v>37.9</v>
       </c>
     </row>
@@ -4549,22 +4512,22 @@
       <c r="D109" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
-        <v>0</v>
-      </c>
-      <c r="G109" s="44">
+      <c r="E109" s="41">
+        <v>0</v>
+      </c>
+      <c r="F109" s="41">
+        <v>0</v>
+      </c>
+      <c r="G109" s="52">
         <v>113.1</v>
       </c>
-      <c r="H109" s="51">
+      <c r="H109" s="44">
         <v>93.4</v>
       </c>
-      <c r="I109" s="63">
+      <c r="I109" s="45">
         <v>91.2</v>
       </c>
-      <c r="J109" s="68">
+      <c r="J109" s="50">
         <v>17.100000000000001</v>
       </c>
     </row>
@@ -4577,22 +4540,22 @@
       <c r="D110" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E110" s="3">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="43">
+      <c r="E110" s="41">
+        <v>0</v>
+      </c>
+      <c r="F110" s="41">
+        <v>0</v>
+      </c>
+      <c r="G110" s="51">
         <v>100.9</v>
       </c>
-      <c r="H110" s="51">
+      <c r="H110" s="44">
         <v>99.1</v>
       </c>
-      <c r="I110" s="63">
+      <c r="I110" s="45">
         <v>98.2</v>
       </c>
-      <c r="J110" s="68">
+      <c r="J110" s="50">
         <v>62.8</v>
       </c>
     </row>
@@ -4609,22 +4572,22 @@
       <c r="D111" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E111" s="27">
+      <c r="E111" s="53">
         <v>1</v>
       </c>
-      <c r="F111" s="27">
+      <c r="F111" s="53">
         <v>1</v>
       </c>
-      <c r="G111" s="45" t="s">
+      <c r="G111" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="H111" s="45" t="s">
+      <c r="H111" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="I111" s="45" t="s">
+      <c r="I111" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="J111" s="45" t="s">
+      <c r="J111" s="54" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4637,22 +4600,22 @@
       <c r="D112" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E112" s="28">
-        <v>0</v>
-      </c>
-      <c r="F112" s="28">
+      <c r="E112" s="55">
+        <v>0</v>
+      </c>
+      <c r="F112" s="55">
         <v>2</v>
       </c>
-      <c r="G112" s="46" t="s">
+      <c r="G112" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="H112" s="46" t="s">
+      <c r="H112" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="I112" s="46" t="s">
+      <c r="I112" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="J112" s="46" t="s">
+      <c r="J112" s="56" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4667,22 +4630,22 @@
       <c r="D113" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E113" s="28">
-        <v>0</v>
-      </c>
-      <c r="F113" s="28">
-        <v>0</v>
-      </c>
-      <c r="G113" s="46" t="s">
+      <c r="E113" s="55">
+        <v>0</v>
+      </c>
+      <c r="F113" s="55">
+        <v>0</v>
+      </c>
+      <c r="G113" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="H113" s="46" t="s">
+      <c r="H113" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="I113" s="46" t="s">
+      <c r="I113" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="J113" s="46" t="s">
+      <c r="J113" s="56" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4695,26 +4658,26 @@
       <c r="D114" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E114" s="28">
-        <v>0</v>
-      </c>
-      <c r="F114" s="28">
+      <c r="E114" s="55">
+        <v>0</v>
+      </c>
+      <c r="F114" s="55">
         <v>3</v>
       </c>
-      <c r="G114" s="46" t="s">
+      <c r="G114" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="H114" s="46" t="s">
+      <c r="H114" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="I114" s="46" t="s">
+      <c r="I114" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="J114" s="46" t="s">
+      <c r="J114" s="56" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4723,22 +4686,22 @@
       <c r="D115" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E115" s="28">
-        <v>0</v>
-      </c>
-      <c r="F115" s="28">
+      <c r="E115" s="55">
+        <v>0</v>
+      </c>
+      <c r="F115" s="55">
         <v>2</v>
       </c>
-      <c r="G115" s="46" t="s">
+      <c r="G115" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="H115" s="46" t="s">
+      <c r="H115" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="I115" s="46" t="s">
+      <c r="I115" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="J115" s="46" t="s">
+      <c r="J115" s="56" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4753,22 +4716,22 @@
       <c r="D116" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E116" s="28">
-        <v>0</v>
-      </c>
-      <c r="F116" s="28">
-        <v>0</v>
-      </c>
-      <c r="G116" s="46" t="s">
+      <c r="E116" s="55">
+        <v>0</v>
+      </c>
+      <c r="F116" s="55">
+        <v>0</v>
+      </c>
+      <c r="G116" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="H116" s="46" t="s">
+      <c r="H116" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="I116" s="46" t="s">
+      <c r="I116" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="J116" s="46" t="s">
+      <c r="J116" s="56" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4781,22 +4744,22 @@
       <c r="D117" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E117" s="28">
+      <c r="E117" s="55">
         <v>2</v>
       </c>
-      <c r="F117" s="28">
+      <c r="F117" s="55">
         <v>2</v>
       </c>
-      <c r="G117" s="46" t="s">
+      <c r="G117" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="H117" s="46" t="s">
+      <c r="H117" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="I117" s="46" t="s">
+      <c r="I117" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="J117" s="46" t="s">
+      <c r="J117" s="56" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4811,22 +4774,22 @@
       <c r="D118" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E118" s="28">
+      <c r="E118" s="55">
         <v>2</v>
       </c>
-      <c r="F118" s="28">
-        <v>0</v>
-      </c>
-      <c r="G118" s="46" t="s">
+      <c r="F118" s="55">
+        <v>0</v>
+      </c>
+      <c r="G118" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="H118" s="46" t="s">
+      <c r="H118" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="I118" s="46" t="s">
+      <c r="I118" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="J118" s="46" t="s">
+      <c r="J118" s="56" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4839,22 +4802,22 @@
       <c r="D119" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E119" s="28">
-        <v>0</v>
-      </c>
-      <c r="F119" s="28">
+      <c r="E119" s="55">
+        <v>0</v>
+      </c>
+      <c r="F119" s="55">
         <v>1</v>
       </c>
-      <c r="G119" s="46" t="s">
+      <c r="G119" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="H119" s="46" t="s">
+      <c r="H119" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="I119" s="46" t="s">
+      <c r="I119" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="J119" s="46" t="s">
+      <c r="J119" s="56" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4867,22 +4830,22 @@
       <c r="D120" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E120" s="28">
+      <c r="E120" s="55">
         <v>1</v>
       </c>
-      <c r="F120" s="28">
+      <c r="F120" s="55">
         <v>1</v>
       </c>
-      <c r="G120" s="46" t="s">
+      <c r="G120" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="H120" s="46" t="s">
+      <c r="H120" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="I120" s="46" t="s">
+      <c r="I120" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="J120" s="46" t="s">
+      <c r="J120" s="56" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4895,22 +4858,22 @@
       <c r="D121" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E121" s="29">
-        <v>0</v>
-      </c>
-      <c r="F121" s="29">
-        <v>0</v>
-      </c>
-      <c r="G121" s="47" t="s">
+      <c r="E121" s="57">
+        <v>0</v>
+      </c>
+      <c r="F121" s="57">
+        <v>0</v>
+      </c>
+      <c r="G121" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="H121" s="47" t="s">
+      <c r="H121" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="I121" s="47" t="s">
+      <c r="I121" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="J121" s="47" t="s">
+      <c r="J121" s="58" t="s">
         <v>204</v>
       </c>
     </row>

--- a/bali.xlsx
+++ b/bali.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A4394F-A656-4365-A597-A0E08964370D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D03540-D0D6-4D51-A19F-D7ACC2E3F546}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{84E13336-C440-430E-965B-9F833A38D5CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -852,7 +853,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,37 +899,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -962,63 +936,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1339,7 +1347,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,11 +1356,11 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="6" width="4.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1368,22 +1376,22 @@
       <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="34" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1400,22 +1408,22 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29">
-        <v>0</v>
-      </c>
-      <c r="F2" s="29">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17">
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35">
         <v>88.5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="35">
         <v>75.599999999999994</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="35">
         <v>87</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="35">
         <v>134.28</v>
       </c>
     </row>
@@ -1428,22 +1436,22 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30">
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
         <v>105.4</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="36">
         <v>107.7</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="36">
         <v>100</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="36">
         <v>204.23</v>
       </c>
     </row>
@@ -1458,22 +1466,22 @@
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
         <v>112</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="36">
         <v>96.8</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="36">
         <v>100</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="36">
         <v>70.150000000000006</v>
       </c>
     </row>
@@ -1486,22 +1494,22 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
         <v>95.1</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="36">
         <v>90.2</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="36">
         <v>87.7</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="36">
         <v>108.46</v>
       </c>
     </row>
@@ -1516,22 +1524,22 @@
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36">
         <v>106.8</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="36">
         <v>91.3</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="36">
         <v>86.8</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="36">
         <v>171.71</v>
       </c>
     </row>
@@ -1544,22 +1552,22 @@
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36">
         <v>124.1</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="36">
         <v>100</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="36">
         <v>100</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="36">
         <v>143.46</v>
       </c>
     </row>
@@ -1574,22 +1582,22 @@
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36">
         <v>95.9</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="36">
         <v>90</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="36">
         <v>100</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="36">
         <v>121.54</v>
       </c>
     </row>
@@ -1602,22 +1610,22 @@
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
         <v>90.6</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="36">
         <v>84.5</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="36">
         <v>93.1</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="36">
         <v>179.34</v>
       </c>
     </row>
@@ -1630,22 +1638,22 @@
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
         <v>101.4</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="36">
         <v>100.6</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="36">
         <v>99.6</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="36">
         <v>85.97</v>
       </c>
     </row>
@@ -1660,22 +1668,22 @@
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
         <v>103.2</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="36">
         <v>100.2</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="36">
         <v>91.9</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="36">
         <v>117.24</v>
       </c>
     </row>
@@ -1688,22 +1696,22 @@
       <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
         <v>104.3</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="36">
         <v>92.4</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="36">
         <v>90</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="36">
         <v>205.57</v>
       </c>
     </row>
@@ -1718,22 +1726,22 @@
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
         <v>99.5</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="36">
         <v>97.1</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="36">
         <v>100</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="36">
         <v>99.21</v>
       </c>
     </row>
@@ -1746,22 +1754,22 @@
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36">
         <v>74.2</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="36">
         <v>62.8</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="36">
         <v>84.7</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="36">
         <v>107.56</v>
       </c>
     </row>
@@ -1776,22 +1784,22 @@
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36">
         <v>80.8</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="36">
         <v>75.599999999999994</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="36">
         <v>91.9</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="36">
         <v>114.82</v>
       </c>
     </row>
@@ -1804,22 +1812,22 @@
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="36">
         <v>80.400000000000006</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="36">
         <v>74.099999999999994</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="36">
         <v>82.9</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="36">
         <v>101.46</v>
       </c>
     </row>
@@ -1832,22 +1840,22 @@
       <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-      <c r="F17" s="30">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="36">
         <v>65</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="36">
         <v>58.2</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="36">
         <v>84.2</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="36">
         <v>88.04</v>
       </c>
     </row>
@@ -1862,22 +1870,22 @@
       <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-      <c r="F18" s="30">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
         <v>63</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="36">
         <v>45.7</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="36">
         <v>66.099999999999994</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="36">
         <v>25.87</v>
       </c>
     </row>
@@ -1890,22 +1898,22 @@
       <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="30">
-        <v>0</v>
-      </c>
-      <c r="F19" s="30">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1</v>
+      </c>
+      <c r="G19" s="36">
         <v>53.4</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="36">
         <v>40</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="36">
         <v>74.8</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="36">
         <v>96.77</v>
       </c>
     </row>
@@ -1920,22 +1928,22 @@
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="30">
-        <v>1</v>
-      </c>
-      <c r="F20" s="30">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36">
         <v>112.9</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="36">
         <v>92.3</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="36">
         <v>98</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="36">
         <v>217.99</v>
       </c>
     </row>
@@ -1948,22 +1956,22 @@
       <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="30">
-        <v>0</v>
-      </c>
-      <c r="F21" s="30">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="37">
         <v>109.5</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="37">
         <v>90.4</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="37">
         <v>83.7</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="37">
         <v>218.48</v>
       </c>
     </row>
@@ -1980,22 +1988,22 @@
       <c r="D22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="31">
-        <v>0</v>
-      </c>
-      <c r="F22" s="31">
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="38">
         <v>99</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="38">
         <v>90</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="38">
         <v>91.62</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="38">
         <v>84.07</v>
       </c>
     </row>
@@ -2008,22 +2016,22 @@
       <c r="D23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="32">
-        <v>0</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="E23" s="23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="39">
         <v>100</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="39">
         <v>91</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="39">
         <v>91.26</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="39">
         <v>128.63999999999999</v>
       </c>
     </row>
@@ -2038,22 +2046,22 @@
       <c r="D24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="32">
-        <v>0</v>
-      </c>
-      <c r="F24" s="32">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21">
+      <c r="E24" s="23">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="39">
         <v>103</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="39">
         <v>100</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="39">
         <v>97.58</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="39">
         <v>30.15</v>
       </c>
     </row>
@@ -2066,22 +2074,22 @@
       <c r="D25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="32">
-        <v>0</v>
-      </c>
-      <c r="F25" s="32">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
+      <c r="E25" s="23">
+        <v>0</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
         <v>90</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="39">
         <v>85</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="39">
         <v>94.38</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="39">
         <v>74.650000000000006</v>
       </c>
     </row>
@@ -2096,22 +2104,22 @@
       <c r="D26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="32">
-        <v>0</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0</v>
-      </c>
-      <c r="G26" s="21">
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39">
         <v>78</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="39">
         <v>74</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="39">
         <v>100</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="39">
         <v>92.53</v>
       </c>
     </row>
@@ -2124,22 +2132,22 @@
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="32">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32">
-        <v>0</v>
-      </c>
-      <c r="G27" s="21">
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="39">
         <v>102</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="39">
         <v>95</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="39">
         <v>92.27</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="39">
         <v>86.63</v>
       </c>
     </row>
@@ -2154,22 +2162,22 @@
       <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="32">
-        <v>0</v>
-      </c>
-      <c r="F28" s="32">
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
+      <c r="E28" s="23">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="39">
         <v>95</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="39">
         <v>95</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="39">
         <v>89.84</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="39">
         <v>37.69</v>
       </c>
     </row>
@@ -2182,22 +2190,22 @@
       <c r="D29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="32">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32">
-        <v>0</v>
-      </c>
-      <c r="G29" s="21">
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="39">
         <v>78</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="39">
         <v>72</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="39">
         <v>83.9</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="39">
         <v>17.73</v>
       </c>
     </row>
@@ -2210,22 +2218,22 @@
       <c r="D30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="33">
-        <v>0</v>
-      </c>
-      <c r="F30" s="33">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
+      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="G30" s="40">
         <v>100</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="40">
         <v>101</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="40">
         <v>95.58</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="40">
         <v>176.03</v>
       </c>
     </row>
@@ -2242,22 +2250,22 @@
       <c r="D31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="34">
-        <v>0</v>
-      </c>
-      <c r="F31" s="34">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20">
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
         <v>66.400000000000006</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="38">
         <v>62.2</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="38">
         <v>62.2</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="38">
         <v>42</v>
       </c>
     </row>
@@ -2270,22 +2278,22 @@
       <c r="D32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="35">
-        <v>0</v>
-      </c>
-      <c r="F32" s="34">
-        <v>0</v>
-      </c>
-      <c r="G32" s="21">
+      <c r="E32" s="26">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25">
+        <v>0</v>
+      </c>
+      <c r="G32" s="39">
         <v>77.400000000000006</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="39">
         <v>74.2</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="39">
         <v>77.400000000000006</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="39">
         <v>13</v>
       </c>
     </row>
@@ -2300,22 +2308,22 @@
       <c r="D33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="35">
-        <v>0</v>
-      </c>
-      <c r="F33" s="34">
-        <v>0</v>
-      </c>
-      <c r="G33" s="21">
+      <c r="E33" s="26">
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="39">
         <v>79.099999999999994</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="39">
         <v>75.400000000000006</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="39">
         <v>75.400000000000006</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="39">
         <v>52</v>
       </c>
     </row>
@@ -2328,22 +2336,22 @@
       <c r="D34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="36">
-        <v>1</v>
-      </c>
-      <c r="F34" s="34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="21">
+      <c r="E34" s="27">
+        <v>1</v>
+      </c>
+      <c r="F34" s="25">
+        <v>0</v>
+      </c>
+      <c r="G34" s="39">
         <v>72.5</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="39">
         <v>69.900000000000006</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="39">
         <v>69.900000000000006</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="39">
         <v>60</v>
       </c>
     </row>
@@ -2356,22 +2364,22 @@
       <c r="D35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="34">
-        <v>0</v>
-      </c>
-      <c r="G35" s="21">
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0</v>
+      </c>
+      <c r="G35" s="39">
         <v>85.4</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="39">
         <v>87.3</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="39">
         <v>85.6</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="39">
         <v>65</v>
       </c>
     </row>
@@ -2384,22 +2392,22 @@
       <c r="D36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="35">
-        <v>0</v>
-      </c>
-      <c r="F36" s="34">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21">
+      <c r="E36" s="26">
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0</v>
+      </c>
+      <c r="G36" s="39">
         <v>73.900000000000006</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="39">
         <v>72.3</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="39">
         <v>69</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="39">
         <v>70</v>
       </c>
     </row>
@@ -2414,22 +2422,22 @@
       <c r="D37" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="35">
-        <v>0</v>
-      </c>
-      <c r="F37" s="34">
-        <v>0</v>
-      </c>
-      <c r="G37" s="21">
+      <c r="E37" s="26">
+        <v>0</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0</v>
+      </c>
+      <c r="G37" s="39">
         <v>81.8</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="39">
         <v>76.900000000000006</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="39">
         <v>76.900000000000006</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="39">
         <v>44</v>
       </c>
     </row>
@@ -2442,22 +2450,22 @@
       <c r="D38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="35">
-        <v>0</v>
-      </c>
-      <c r="F38" s="34">
-        <v>0</v>
-      </c>
-      <c r="G38" s="21">
+      <c r="E38" s="26">
+        <v>0</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0</v>
+      </c>
+      <c r="G38" s="39">
         <v>83.8</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="39">
         <v>78</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="39">
         <v>78.599999999999994</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="39">
         <v>98</v>
       </c>
     </row>
@@ -2470,22 +2478,22 @@
       <c r="D39" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="35">
-        <v>0</v>
-      </c>
-      <c r="F39" s="36">
+      <c r="E39" s="26">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
         <v>2</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="39">
         <v>82.3</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="39">
         <v>72.900000000000006</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="39">
         <v>72.900000000000006</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="39">
         <v>101</v>
       </c>
     </row>
@@ -2500,22 +2508,22 @@
       <c r="D40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="35">
-        <v>0</v>
-      </c>
-      <c r="F40" s="36">
-        <v>1</v>
-      </c>
-      <c r="G40" s="21">
+      <c r="E40" s="26">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27">
+        <v>1</v>
+      </c>
+      <c r="G40" s="39">
         <v>81.7</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="39">
         <v>71.2</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="39">
         <v>5.5</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="39">
         <v>63</v>
       </c>
     </row>
@@ -2528,22 +2536,22 @@
       <c r="D41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="35">
-        <v>0</v>
-      </c>
-      <c r="F41" s="34">
-        <v>0</v>
-      </c>
-      <c r="G41" s="21">
+      <c r="E41" s="26">
+        <v>0</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0</v>
+      </c>
+      <c r="G41" s="39">
         <v>63.5</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="39">
         <v>62.1</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="39">
         <v>117.1</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="39">
         <v>97</v>
       </c>
     </row>
@@ -2558,22 +2566,22 @@
       <c r="D42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="36">
-        <v>1</v>
-      </c>
-      <c r="F42" s="36">
-        <v>1</v>
-      </c>
-      <c r="G42" s="21">
+      <c r="E42" s="27">
+        <v>1</v>
+      </c>
+      <c r="F42" s="27">
+        <v>1</v>
+      </c>
+      <c r="G42" s="39">
         <v>86.8</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="39">
         <v>71.900000000000006</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="39">
         <v>74.400000000000006</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="39">
         <v>28</v>
       </c>
     </row>
@@ -2588,22 +2596,22 @@
       <c r="D43" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="37">
-        <v>0</v>
-      </c>
-      <c r="F43" s="38">
+      <c r="E43" s="28">
+        <v>0</v>
+      </c>
+      <c r="F43" s="29">
         <v>2</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="40">
         <v>85.6</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="40">
         <v>74.400000000000006</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="40">
         <v>71.900000000000006</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="40">
         <v>139</v>
       </c>
     </row>
@@ -2620,22 +2628,22 @@
       <c r="D44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="23">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" s="39">
+      <c r="E44" s="17">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0</v>
+      </c>
+      <c r="G44" s="41">
         <v>85</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="49">
         <v>85</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="53">
         <v>100</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="49">
         <v>68</v>
       </c>
     </row>
@@ -2648,22 +2656,22 @@
       <c r="D45" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="23">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
+      <c r="E45" s="17">
+        <v>0</v>
+      </c>
+      <c r="F45" s="17">
         <v>2</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="41">
         <v>91.8</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="49">
         <v>88.2</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="53">
         <v>100</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="49">
         <v>91</v>
       </c>
     </row>
@@ -2678,22 +2686,22 @@
       <c r="D46" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="23">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="39">
+      <c r="E46" s="17">
+        <v>0</v>
+      </c>
+      <c r="F46" s="17">
+        <v>0</v>
+      </c>
+      <c r="G46" s="41">
         <v>93.4</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="49">
         <v>88.7</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="53">
         <v>100</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="49">
         <v>69</v>
       </c>
     </row>
@@ -2706,22 +2714,22 @@
       <c r="D47" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="23">
-        <v>1</v>
-      </c>
-      <c r="F47" s="23">
-        <v>1</v>
-      </c>
-      <c r="G47" s="39">
+      <c r="E47" s="17">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17">
+        <v>1</v>
+      </c>
+      <c r="G47" s="41">
         <v>122.9</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="49">
         <v>101.9</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="53">
         <v>100</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="49">
         <v>78</v>
       </c>
     </row>
@@ -2736,22 +2744,22 @@
       <c r="D48" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="23">
-        <v>1</v>
-      </c>
-      <c r="F48" s="23">
-        <v>1</v>
-      </c>
-      <c r="G48" s="39">
+      <c r="E48" s="17">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17">
+        <v>1</v>
+      </c>
+      <c r="G48" s="41">
         <v>79.3</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="49">
         <v>80</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="53">
         <v>100</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="49">
         <v>79</v>
       </c>
     </row>
@@ -2764,22 +2772,22 @@
       <c r="D49" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="23">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" s="39">
+      <c r="E49" s="17">
+        <v>0</v>
+      </c>
+      <c r="F49" s="17">
+        <v>0</v>
+      </c>
+      <c r="G49" s="41">
         <v>68.8</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="49">
         <v>71.5</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="53">
         <v>100</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="49">
         <v>144</v>
       </c>
     </row>
@@ -2794,22 +2802,22 @@
       <c r="D50" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="39">
+      <c r="E50" s="17">
+        <v>0</v>
+      </c>
+      <c r="F50" s="17">
+        <v>0</v>
+      </c>
+      <c r="G50" s="41">
         <v>77</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="49">
         <v>65.2</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="53">
         <v>100</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="49">
         <v>139</v>
       </c>
     </row>
@@ -2822,22 +2830,22 @@
       <c r="D51" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="23">
-        <v>0</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="39">
+      <c r="E51" s="17">
+        <v>0</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0</v>
+      </c>
+      <c r="G51" s="41">
         <v>102</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="49">
         <v>84.9</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="53">
         <v>100</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="49">
         <v>125</v>
       </c>
     </row>
@@ -2852,22 +2860,22 @@
       <c r="D52" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="23">
-        <v>0</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="39">
+      <c r="E52" s="17">
+        <v>0</v>
+      </c>
+      <c r="F52" s="17">
+        <v>0</v>
+      </c>
+      <c r="G52" s="41">
         <v>96.2</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="49">
         <v>99.2</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="53">
         <v>100</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="49">
         <v>103</v>
       </c>
     </row>
@@ -2880,22 +2888,22 @@
       <c r="D53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="39">
+      <c r="E53" s="17">
+        <v>0</v>
+      </c>
+      <c r="F53" s="17">
+        <v>0</v>
+      </c>
+      <c r="G53" s="41">
         <v>64.8</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="49">
         <v>70.400000000000006</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="53">
         <v>100</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="49">
         <v>154</v>
       </c>
     </row>
@@ -2912,22 +2920,22 @@
       <c r="D54" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="25">
-        <v>1</v>
-      </c>
-      <c r="F54" s="25">
-        <v>1</v>
-      </c>
-      <c r="G54" s="40">
+      <c r="E54" s="18">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="42">
         <v>85.1</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="50">
         <v>75.3</v>
       </c>
-      <c r="I54" s="25">
+      <c r="I54" s="54">
         <v>98.4</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="50">
         <v>28.83</v>
       </c>
     </row>
@@ -2940,22 +2948,22 @@
       <c r="D55" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="41">
-        <v>0</v>
-      </c>
-      <c r="F55" s="25">
-        <v>1</v>
-      </c>
-      <c r="G55" s="40">
+      <c r="E55" s="30">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="42">
         <v>71</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="50">
         <v>58.3</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I55" s="54">
         <v>82.7</v>
       </c>
-      <c r="J55" s="26">
+      <c r="J55" s="50">
         <v>38.61</v>
       </c>
     </row>
@@ -2970,22 +2978,22 @@
       <c r="D56" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="41">
-        <v>0</v>
-      </c>
-      <c r="F56" s="41">
-        <v>0</v>
-      </c>
-      <c r="G56" s="40">
+      <c r="E56" s="30">
+        <v>0</v>
+      </c>
+      <c r="F56" s="30">
+        <v>0</v>
+      </c>
+      <c r="G56" s="42">
         <v>89.5</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H56" s="50">
         <v>74.5</v>
       </c>
-      <c r="I56" s="25">
+      <c r="I56" s="54">
         <v>55</v>
       </c>
-      <c r="J56" s="26">
+      <c r="J56" s="50">
         <v>33.450000000000003</v>
       </c>
     </row>
@@ -3000,22 +3008,22 @@
       <c r="D57" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="41">
-        <v>0</v>
-      </c>
-      <c r="F57" s="41">
-        <v>0</v>
-      </c>
-      <c r="G57" s="40">
+      <c r="E57" s="30">
+        <v>0</v>
+      </c>
+      <c r="F57" s="30">
+        <v>0</v>
+      </c>
+      <c r="G57" s="42">
         <v>94.6</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="50">
         <v>91.2</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="55">
         <v>95.7</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="50">
         <v>93.8</v>
       </c>
     </row>
@@ -3030,22 +3038,22 @@
       <c r="D58" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="41">
-        <v>0</v>
-      </c>
-      <c r="F58" s="41">
-        <v>0</v>
-      </c>
-      <c r="G58" s="40">
+      <c r="E58" s="30">
+        <v>0</v>
+      </c>
+      <c r="F58" s="30">
+        <v>0</v>
+      </c>
+      <c r="G58" s="42">
         <v>87.1</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H58" s="50">
         <v>81.900000000000006</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="55">
         <v>98.5</v>
       </c>
-      <c r="J58" s="26">
+      <c r="J58" s="50">
         <v>84.45</v>
       </c>
     </row>
@@ -3060,22 +3068,22 @@
       <c r="D59" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="41">
-        <v>0</v>
-      </c>
-      <c r="F59" s="41">
-        <v>1</v>
-      </c>
-      <c r="G59" s="40">
+      <c r="E59" s="30">
+        <v>0</v>
+      </c>
+      <c r="F59" s="30">
+        <v>1</v>
+      </c>
+      <c r="G59" s="42">
         <v>89.5</v>
       </c>
-      <c r="H59" s="26">
+      <c r="H59" s="50">
         <v>89.5</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="55">
         <v>99.6</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="50">
         <v>103.38</v>
       </c>
     </row>
@@ -3090,22 +3098,22 @@
       <c r="D60" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="41">
-        <v>0</v>
-      </c>
-      <c r="F60" s="41">
-        <v>1</v>
-      </c>
-      <c r="G60" s="40">
+      <c r="E60" s="30">
+        <v>0</v>
+      </c>
+      <c r="F60" s="30">
+        <v>1</v>
+      </c>
+      <c r="G60" s="42">
         <v>99.1</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="50">
         <v>95.7</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="55">
         <v>98.6</v>
       </c>
-      <c r="J60" s="26">
+      <c r="J60" s="50">
         <v>49.61</v>
       </c>
     </row>
@@ -3118,22 +3126,22 @@
       <c r="D61" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="41">
-        <v>0</v>
-      </c>
-      <c r="F61" s="41">
-        <v>0</v>
-      </c>
-      <c r="G61" s="40">
+      <c r="E61" s="30">
+        <v>0</v>
+      </c>
+      <c r="F61" s="30">
+        <v>0</v>
+      </c>
+      <c r="G61" s="42">
         <v>83</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="50">
         <v>74</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="55">
         <v>91.9</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="50">
         <v>38.130000000000003</v>
       </c>
     </row>
@@ -3148,22 +3156,22 @@
       <c r="D62" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="41">
-        <v>0</v>
-      </c>
-      <c r="F62" s="41">
-        <v>0</v>
-      </c>
-      <c r="G62" s="40">
+      <c r="E62" s="30">
+        <v>0</v>
+      </c>
+      <c r="F62" s="30">
+        <v>0</v>
+      </c>
+      <c r="G62" s="42">
         <v>108.2</v>
       </c>
-      <c r="H62" s="26">
+      <c r="H62" s="50">
         <v>98.6</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="55">
         <v>88.6</v>
       </c>
-      <c r="J62" s="26">
+      <c r="J62" s="50">
         <v>79.84</v>
       </c>
     </row>
@@ -3176,22 +3184,22 @@
       <c r="D63" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="41">
-        <v>0</v>
-      </c>
-      <c r="F63" s="41">
-        <v>0</v>
-      </c>
-      <c r="G63" s="40">
+      <c r="E63" s="30">
+        <v>0</v>
+      </c>
+      <c r="F63" s="30">
+        <v>0</v>
+      </c>
+      <c r="G63" s="42">
         <v>99.4</v>
       </c>
-      <c r="H63" s="26">
+      <c r="H63" s="50">
         <v>90.2</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="55">
         <v>99.8</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J63" s="50">
         <v>61.81</v>
       </c>
     </row>
@@ -3206,22 +3214,22 @@
       <c r="D64" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="41">
-        <v>1</v>
-      </c>
-      <c r="F64" s="41">
-        <v>0</v>
-      </c>
-      <c r="G64" s="40">
+      <c r="E64" s="30">
+        <v>1</v>
+      </c>
+      <c r="F64" s="30">
+        <v>0</v>
+      </c>
+      <c r="G64" s="42">
         <v>104.3</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="51">
         <v>86.5</v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="55">
         <v>56</v>
       </c>
-      <c r="J64" s="26">
+      <c r="J64" s="50">
         <v>35.71</v>
       </c>
     </row>
@@ -3234,22 +3242,22 @@
       <c r="D65" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65" s="30">
         <v>3</v>
       </c>
-      <c r="F65" s="41">
-        <v>0</v>
-      </c>
-      <c r="G65" s="40">
+      <c r="F65" s="30">
+        <v>0</v>
+      </c>
+      <c r="G65" s="42">
         <v>135.19999999999999</v>
       </c>
-      <c r="H65" s="42">
+      <c r="H65" s="51">
         <v>74.7</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="55">
         <v>72.900000000000006</v>
       </c>
-      <c r="J65" s="26">
+      <c r="J65" s="50">
         <v>64.92</v>
       </c>
     </row>
@@ -3266,22 +3274,22 @@
       <c r="D66" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="41">
-        <v>0</v>
-      </c>
-      <c r="F66" s="41">
-        <v>0</v>
-      </c>
-      <c r="G66" s="40">
+      <c r="E66" s="30">
+        <v>0</v>
+      </c>
+      <c r="F66" s="30">
+        <v>0</v>
+      </c>
+      <c r="G66" s="42">
         <v>70.8</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="51">
         <v>65.8</v>
       </c>
-      <c r="I66" s="27">
+      <c r="I66" s="55">
         <v>84.3</v>
       </c>
-      <c r="J66" s="26">
+      <c r="J66" s="50">
         <v>85</v>
       </c>
     </row>
@@ -3294,22 +3302,22 @@
       <c r="D67" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="41">
-        <v>0</v>
-      </c>
-      <c r="F67" s="41">
-        <v>0</v>
-      </c>
-      <c r="G67" s="40">
+      <c r="E67" s="30">
+        <v>0</v>
+      </c>
+      <c r="F67" s="30">
+        <v>0</v>
+      </c>
+      <c r="G67" s="42">
         <v>86.7</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="51">
         <v>77</v>
       </c>
-      <c r="I67" s="27">
+      <c r="I67" s="55">
         <v>88.8</v>
       </c>
-      <c r="J67" s="26">
+      <c r="J67" s="50">
         <v>43</v>
       </c>
     </row>
@@ -3324,22 +3332,22 @@
       <c r="D68" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="41">
-        <v>0</v>
-      </c>
-      <c r="F68" s="41">
-        <v>0</v>
-      </c>
-      <c r="G68" s="40">
+      <c r="E68" s="30">
+        <v>0</v>
+      </c>
+      <c r="F68" s="30">
+        <v>0</v>
+      </c>
+      <c r="G68" s="42">
         <v>74.599999999999994</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="51">
         <v>59.6</v>
       </c>
-      <c r="I68" s="27">
+      <c r="I68" s="55">
         <v>100</v>
       </c>
-      <c r="J68" s="26">
+      <c r="J68" s="50">
         <v>169</v>
       </c>
     </row>
@@ -3354,22 +3362,22 @@
       <c r="D69" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="41">
-        <v>0</v>
-      </c>
-      <c r="F69" s="41">
-        <v>0</v>
-      </c>
-      <c r="G69" s="40">
+      <c r="E69" s="30">
+        <v>0</v>
+      </c>
+      <c r="F69" s="30">
+        <v>0</v>
+      </c>
+      <c r="G69" s="42">
         <v>93.9</v>
       </c>
-      <c r="H69" s="42">
+      <c r="H69" s="51">
         <v>92.1</v>
       </c>
-      <c r="I69" s="27">
+      <c r="I69" s="55">
         <v>98</v>
       </c>
-      <c r="J69" s="26">
+      <c r="J69" s="50">
         <v>77</v>
       </c>
     </row>
@@ -3382,22 +3390,22 @@
       <c r="D70" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E70" s="41">
-        <v>0</v>
-      </c>
-      <c r="F70" s="41">
-        <v>0</v>
-      </c>
-      <c r="G70" s="40">
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="30">
+        <v>0</v>
+      </c>
+      <c r="G70" s="42">
         <v>75.5</v>
       </c>
-      <c r="H70" s="42">
+      <c r="H70" s="51">
         <v>73.5</v>
       </c>
-      <c r="I70" s="27">
+      <c r="I70" s="55">
         <v>90.5</v>
       </c>
-      <c r="J70" s="26">
+      <c r="J70" s="50">
         <v>98</v>
       </c>
     </row>
@@ -3412,22 +3420,22 @@
       <c r="D71" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E71" s="41">
-        <v>0</v>
-      </c>
-      <c r="F71" s="41">
-        <v>0</v>
-      </c>
-      <c r="G71" s="40">
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="30">
+        <v>0</v>
+      </c>
+      <c r="G71" s="42">
         <v>66.5</v>
       </c>
-      <c r="H71" s="42">
+      <c r="H71" s="51">
         <v>67.5</v>
       </c>
-      <c r="I71" s="27">
+      <c r="I71" s="55">
         <v>78.7</v>
       </c>
-      <c r="J71" s="26">
+      <c r="J71" s="50">
         <v>42</v>
       </c>
     </row>
@@ -3440,22 +3448,22 @@
       <c r="D72" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="41">
-        <v>0</v>
-      </c>
-      <c r="F72" s="41">
-        <v>0</v>
-      </c>
-      <c r="G72" s="40">
+      <c r="E72" s="30">
+        <v>0</v>
+      </c>
+      <c r="F72" s="30">
+        <v>0</v>
+      </c>
+      <c r="G72" s="42">
         <v>75.2</v>
       </c>
-      <c r="H72" s="42">
+      <c r="H72" s="51">
         <v>80.3</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="55">
         <v>100</v>
       </c>
-      <c r="J72" s="26">
+      <c r="J72" s="50">
         <v>101</v>
       </c>
     </row>
@@ -3470,22 +3478,22 @@
       <c r="D73" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E73" s="41">
-        <v>0</v>
-      </c>
-      <c r="F73" s="41">
-        <v>1</v>
-      </c>
-      <c r="G73" s="40">
+      <c r="E73" s="30">
+        <v>0</v>
+      </c>
+      <c r="F73" s="30">
+        <v>1</v>
+      </c>
+      <c r="G73" s="42">
         <v>79.3</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H73" s="51">
         <v>73</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="55">
         <v>92.1</v>
       </c>
-      <c r="J73" s="26">
+      <c r="J73" s="50">
         <v>40</v>
       </c>
     </row>
@@ -3498,22 +3506,22 @@
       <c r="D74" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="41">
-        <v>0</v>
-      </c>
-      <c r="F74" s="41">
-        <v>0</v>
-      </c>
-      <c r="G74" s="40">
+      <c r="E74" s="30">
+        <v>0</v>
+      </c>
+      <c r="F74" s="30">
+        <v>0</v>
+      </c>
+      <c r="G74" s="42">
         <v>76.599999999999994</v>
       </c>
-      <c r="H74" s="42">
+      <c r="H74" s="51">
         <v>70.599999999999994</v>
       </c>
-      <c r="I74" s="27">
+      <c r="I74" s="55">
         <v>65.099999999999994</v>
       </c>
-      <c r="J74" s="26">
+      <c r="J74" s="50">
         <v>15</v>
       </c>
     </row>
@@ -3528,22 +3536,22 @@
       <c r="D75" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E75" s="41">
-        <v>0</v>
-      </c>
-      <c r="F75" s="41">
-        <v>1</v>
-      </c>
-      <c r="G75" s="40">
+      <c r="E75" s="30">
+        <v>0</v>
+      </c>
+      <c r="F75" s="30">
+        <v>1</v>
+      </c>
+      <c r="G75" s="42">
         <v>85.3</v>
       </c>
-      <c r="H75" s="42">
+      <c r="H75" s="51">
         <v>80</v>
       </c>
-      <c r="I75" s="27">
+      <c r="I75" s="55">
         <v>93</v>
       </c>
-      <c r="J75" s="26">
+      <c r="J75" s="50">
         <v>69</v>
       </c>
     </row>
@@ -3556,20 +3564,20 @@
       <c r="D76" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="41">
-        <v>0</v>
-      </c>
-      <c r="F76" s="41"/>
-      <c r="G76" s="40">
+      <c r="E76" s="30">
+        <v>0</v>
+      </c>
+      <c r="F76" s="30"/>
+      <c r="G76" s="42">
         <v>77.7</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="51">
         <v>73</v>
       </c>
-      <c r="I76" s="27">
+      <c r="I76" s="55">
         <v>86.77</v>
       </c>
-      <c r="J76" s="26">
+      <c r="J76" s="50">
         <v>16</v>
       </c>
     </row>
@@ -3584,22 +3592,22 @@
       <c r="D77" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="41">
-        <v>0</v>
-      </c>
-      <c r="F77" s="41">
+      <c r="E77" s="30">
+        <v>0</v>
+      </c>
+      <c r="F77" s="30">
         <v>2</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="42">
         <v>92</v>
       </c>
-      <c r="H77" s="42">
+      <c r="H77" s="51">
         <v>88.3</v>
       </c>
-      <c r="I77" s="27">
+      <c r="I77" s="55">
         <v>96.1</v>
       </c>
-      <c r="J77" s="26">
+      <c r="J77" s="50">
         <v>143</v>
       </c>
     </row>
@@ -3612,22 +3620,22 @@
       <c r="D78" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="41">
-        <v>0</v>
-      </c>
-      <c r="F78" s="41">
+      <c r="E78" s="30">
+        <v>0</v>
+      </c>
+      <c r="F78" s="30">
         <v>2</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="42">
         <v>79.3</v>
       </c>
-      <c r="H78" s="42">
+      <c r="H78" s="51">
         <v>74.599999999999994</v>
       </c>
-      <c r="I78" s="27">
+      <c r="I78" s="55">
         <v>91.9</v>
       </c>
-      <c r="J78" s="26">
+      <c r="J78" s="50">
         <v>128</v>
       </c>
     </row>
@@ -3644,22 +3652,22 @@
       <c r="D79" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E79" s="41">
+      <c r="E79" s="30">
         <v>2</v>
       </c>
-      <c r="F79" s="41">
-        <v>0</v>
-      </c>
-      <c r="G79" s="40">
+      <c r="F79" s="30">
+        <v>0</v>
+      </c>
+      <c r="G79" s="42">
         <v>98.1</v>
       </c>
-      <c r="H79" s="42">
+      <c r="H79" s="51">
         <v>89.9</v>
       </c>
-      <c r="I79" s="27">
+      <c r="I79" s="55">
         <v>84.4</v>
       </c>
-      <c r="J79" s="26">
+      <c r="J79" s="50">
         <v>49.3</v>
       </c>
     </row>
@@ -3672,22 +3680,22 @@
       <c r="D80" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E80" s="41">
-        <v>0</v>
-      </c>
-      <c r="F80" s="41">
-        <v>0</v>
-      </c>
-      <c r="G80" s="40">
+      <c r="E80" s="30">
+        <v>0</v>
+      </c>
+      <c r="F80" s="30">
+        <v>0</v>
+      </c>
+      <c r="G80" s="42">
         <v>77</v>
       </c>
-      <c r="H80" s="42">
+      <c r="H80" s="51">
         <v>81.599999999999994</v>
       </c>
-      <c r="I80" s="27">
+      <c r="I80" s="55">
         <v>91.9</v>
       </c>
-      <c r="J80" s="26">
+      <c r="J80" s="50">
         <v>11.5</v>
       </c>
     </row>
@@ -3700,22 +3708,22 @@
       <c r="D81" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="41">
-        <v>0</v>
-      </c>
-      <c r="F81" s="41">
-        <v>0</v>
-      </c>
-      <c r="G81" s="40">
+      <c r="E81" s="30">
+        <v>0</v>
+      </c>
+      <c r="F81" s="30">
+        <v>0</v>
+      </c>
+      <c r="G81" s="42">
         <v>87.4</v>
       </c>
-      <c r="H81" s="42">
+      <c r="H81" s="51">
         <v>81.599999999999994</v>
       </c>
-      <c r="I81" s="27">
+      <c r="I81" s="55">
         <v>1100</v>
       </c>
-      <c r="J81" s="26">
+      <c r="J81" s="50">
         <v>125.9</v>
       </c>
     </row>
@@ -3730,22 +3738,22 @@
       <c r="D82" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="41">
-        <v>0</v>
-      </c>
-      <c r="F82" s="41">
-        <v>0</v>
-      </c>
-      <c r="G82" s="40">
+      <c r="E82" s="30">
+        <v>0</v>
+      </c>
+      <c r="F82" s="30">
+        <v>0</v>
+      </c>
+      <c r="G82" s="42">
         <v>94.5</v>
       </c>
-      <c r="H82" s="42">
+      <c r="H82" s="51">
         <v>91.2</v>
       </c>
-      <c r="I82" s="27">
+      <c r="I82" s="55">
         <v>94.6</v>
       </c>
-      <c r="J82" s="26">
+      <c r="J82" s="50">
         <v>132.4</v>
       </c>
     </row>
@@ -3758,22 +3766,22 @@
       <c r="D83" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E83" s="41">
-        <v>0</v>
-      </c>
-      <c r="F83" s="41">
-        <v>0</v>
-      </c>
-      <c r="G83" s="40">
+      <c r="E83" s="30">
+        <v>0</v>
+      </c>
+      <c r="F83" s="30">
+        <v>0</v>
+      </c>
+      <c r="G83" s="42">
         <v>89.5</v>
       </c>
-      <c r="H83" s="42">
+      <c r="H83" s="51">
         <v>81.900000000000006</v>
       </c>
-      <c r="I83" s="27">
+      <c r="I83" s="55">
         <v>92.5</v>
       </c>
-      <c r="J83" s="26">
+      <c r="J83" s="50">
         <v>102.9</v>
       </c>
     </row>
@@ -3788,22 +3796,22 @@
       <c r="D84" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E84" s="41">
-        <v>0</v>
-      </c>
-      <c r="F84" s="41">
-        <v>0</v>
-      </c>
-      <c r="G84" s="40">
+      <c r="E84" s="30">
+        <v>0</v>
+      </c>
+      <c r="F84" s="30">
+        <v>0</v>
+      </c>
+      <c r="G84" s="42">
         <v>52.8</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="51">
         <v>62.7</v>
       </c>
-      <c r="I84" s="27">
+      <c r="I84" s="55">
         <v>100</v>
       </c>
-      <c r="J84" s="26">
+      <c r="J84" s="50">
         <v>104.5</v>
       </c>
     </row>
@@ -3818,22 +3826,22 @@
       <c r="D85" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="41">
-        <v>0</v>
-      </c>
-      <c r="F85" s="41">
-        <v>0</v>
-      </c>
-      <c r="G85" s="40">
+      <c r="E85" s="30">
+        <v>0</v>
+      </c>
+      <c r="F85" s="30">
+        <v>0</v>
+      </c>
+      <c r="G85" s="42">
         <v>88</v>
       </c>
-      <c r="H85" s="42">
+      <c r="H85" s="51">
         <v>83.8</v>
       </c>
-      <c r="I85" s="27">
+      <c r="I85" s="55">
         <v>92.1</v>
       </c>
-      <c r="J85" s="26">
+      <c r="J85" s="50">
         <v>72.5</v>
       </c>
     </row>
@@ -3848,22 +3856,22 @@
       <c r="D86" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E86" s="41">
-        <v>0</v>
-      </c>
-      <c r="F86" s="41">
-        <v>0</v>
-      </c>
-      <c r="G86" s="40">
+      <c r="E86" s="30">
+        <v>0</v>
+      </c>
+      <c r="F86" s="30">
+        <v>0</v>
+      </c>
+      <c r="G86" s="42">
         <v>100.5</v>
       </c>
-      <c r="H86" s="42">
+      <c r="H86" s="51">
         <v>98.5</v>
       </c>
-      <c r="I86" s="27">
+      <c r="I86" s="55">
         <v>91.4</v>
       </c>
-      <c r="J86" s="26">
+      <c r="J86" s="50">
         <v>71.099999999999994</v>
       </c>
     </row>
@@ -3876,22 +3884,22 @@
       <c r="D87" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E87" s="41">
-        <v>0</v>
-      </c>
-      <c r="F87" s="41">
-        <v>0</v>
-      </c>
-      <c r="G87" s="40">
+      <c r="E87" s="30">
+        <v>0</v>
+      </c>
+      <c r="F87" s="30">
+        <v>0</v>
+      </c>
+      <c r="G87" s="42">
         <v>98.5</v>
       </c>
-      <c r="H87" s="42">
+      <c r="H87" s="51">
         <v>92.5</v>
       </c>
-      <c r="I87" s="27">
+      <c r="I87" s="55">
         <v>36.4</v>
       </c>
-      <c r="J87" s="26">
+      <c r="J87" s="50">
         <v>44.6</v>
       </c>
     </row>
@@ -3906,22 +3914,22 @@
       <c r="D88" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E88" s="41">
-        <v>0</v>
-      </c>
-      <c r="F88" s="41">
-        <v>1</v>
-      </c>
-      <c r="G88" s="40">
+      <c r="E88" s="30">
+        <v>0</v>
+      </c>
+      <c r="F88" s="30">
+        <v>1</v>
+      </c>
+      <c r="G88" s="42">
         <v>92.1</v>
       </c>
-      <c r="H88" s="42">
+      <c r="H88" s="51">
         <v>87</v>
       </c>
-      <c r="I88" s="27">
+      <c r="I88" s="55">
         <v>98.9</v>
       </c>
-      <c r="J88" s="26">
+      <c r="J88" s="50">
         <v>177.4</v>
       </c>
     </row>
@@ -3934,22 +3942,22 @@
       <c r="D89" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E89" s="41">
-        <v>0</v>
-      </c>
-      <c r="F89" s="41">
-        <v>0</v>
-      </c>
-      <c r="G89" s="40">
+      <c r="E89" s="30">
+        <v>0</v>
+      </c>
+      <c r="F89" s="30">
+        <v>0</v>
+      </c>
+      <c r="G89" s="42">
         <v>77.599999999999994</v>
       </c>
-      <c r="H89" s="42">
+      <c r="H89" s="51">
         <v>70.599999999999994</v>
       </c>
-      <c r="I89" s="27">
+      <c r="I89" s="55">
         <v>90.7</v>
       </c>
-      <c r="J89" s="26">
+      <c r="J89" s="50">
         <v>88.8</v>
       </c>
     </row>
@@ -3964,22 +3972,22 @@
       <c r="D90" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E90" s="41">
-        <v>0</v>
-      </c>
-      <c r="F90" s="41">
-        <v>0</v>
-      </c>
-      <c r="G90" s="40">
+      <c r="E90" s="30">
+        <v>0</v>
+      </c>
+      <c r="F90" s="30">
+        <v>0</v>
+      </c>
+      <c r="G90" s="42">
         <v>84</v>
       </c>
-      <c r="H90" s="42">
+      <c r="H90" s="51">
         <v>77.599999999999994</v>
       </c>
-      <c r="I90" s="27">
+      <c r="I90" s="55">
         <v>92.3</v>
       </c>
-      <c r="J90" s="26">
+      <c r="J90" s="50">
         <v>97.3</v>
       </c>
     </row>
@@ -3992,22 +4000,22 @@
       <c r="D91" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="41">
-        <v>0</v>
-      </c>
-      <c r="F91" s="41">
-        <v>0</v>
-      </c>
-      <c r="G91" s="40">
+      <c r="E91" s="30">
+        <v>0</v>
+      </c>
+      <c r="F91" s="30">
+        <v>0</v>
+      </c>
+      <c r="G91" s="42">
         <v>84.1</v>
       </c>
-      <c r="H91" s="42">
+      <c r="H91" s="51">
         <v>73.7</v>
       </c>
-      <c r="I91" s="27">
+      <c r="I91" s="55">
         <v>87</v>
       </c>
-      <c r="J91" s="26">
+      <c r="J91" s="50">
         <v>50</v>
       </c>
     </row>
@@ -4022,22 +4030,22 @@
       <c r="D92" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E92" s="41">
-        <v>1</v>
-      </c>
-      <c r="F92" s="41">
-        <v>0</v>
-      </c>
-      <c r="G92" s="40">
+      <c r="E92" s="30">
+        <v>1</v>
+      </c>
+      <c r="F92" s="30">
+        <v>0</v>
+      </c>
+      <c r="G92" s="42">
         <v>88.8</v>
       </c>
-      <c r="H92" s="42">
+      <c r="H92" s="51">
         <v>85.6</v>
       </c>
-      <c r="I92" s="27">
+      <c r="I92" s="55">
         <v>97.1</v>
       </c>
-      <c r="J92" s="26">
+      <c r="J92" s="50">
         <v>98.2</v>
       </c>
     </row>
@@ -4050,22 +4058,22 @@
       <c r="D93" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E93" s="41">
-        <v>1</v>
-      </c>
-      <c r="F93" s="41">
-        <v>0</v>
-      </c>
-      <c r="G93" s="40">
+      <c r="E93" s="30">
+        <v>1</v>
+      </c>
+      <c r="F93" s="30">
+        <v>0</v>
+      </c>
+      <c r="G93" s="42">
         <v>96.7</v>
       </c>
-      <c r="H93" s="42">
+      <c r="H93" s="51">
         <v>92.9</v>
       </c>
-      <c r="I93" s="27">
+      <c r="I93" s="55">
         <v>94.4</v>
       </c>
-      <c r="J93" s="26">
+      <c r="J93" s="50">
         <v>103.8</v>
       </c>
     </row>
@@ -4080,22 +4088,22 @@
       <c r="D94" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E94" s="41">
-        <v>0</v>
-      </c>
-      <c r="F94" s="41">
-        <v>0</v>
-      </c>
-      <c r="G94" s="40">
+      <c r="E94" s="30">
+        <v>0</v>
+      </c>
+      <c r="F94" s="30">
+        <v>0</v>
+      </c>
+      <c r="G94" s="42">
         <v>87.5</v>
       </c>
-      <c r="H94" s="42">
+      <c r="H94" s="51">
         <v>83.4</v>
       </c>
-      <c r="I94" s="27">
+      <c r="I94" s="55">
         <v>83</v>
       </c>
-      <c r="J94" s="26">
+      <c r="J94" s="50">
         <v>83.4</v>
       </c>
     </row>
@@ -4108,22 +4116,22 @@
       <c r="D95" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E95" s="41">
-        <v>0</v>
-      </c>
-      <c r="F95" s="41">
-        <v>0</v>
-      </c>
-      <c r="G95" s="40">
+      <c r="E95" s="30">
+        <v>0</v>
+      </c>
+      <c r="F95" s="30">
+        <v>0</v>
+      </c>
+      <c r="G95" s="42">
         <v>94.3</v>
       </c>
-      <c r="H95" s="42">
+      <c r="H95" s="51">
         <v>86.1</v>
       </c>
-      <c r="I95" s="27">
+      <c r="I95" s="55">
         <v>98.3</v>
       </c>
-      <c r="J95" s="26">
+      <c r="J95" s="50">
         <v>92.8</v>
       </c>
     </row>
@@ -4138,22 +4146,22 @@
       <c r="D96" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E96" s="41">
-        <v>0</v>
-      </c>
-      <c r="F96" s="41">
-        <v>0</v>
-      </c>
-      <c r="G96" s="40">
+      <c r="E96" s="30">
+        <v>0</v>
+      </c>
+      <c r="F96" s="30">
+        <v>0</v>
+      </c>
+      <c r="G96" s="42">
         <v>96.2</v>
       </c>
-      <c r="H96" s="42">
+      <c r="H96" s="51">
         <v>91.1</v>
       </c>
-      <c r="I96" s="27">
+      <c r="I96" s="55">
         <v>100</v>
       </c>
-      <c r="J96" s="26">
+      <c r="J96" s="50">
         <v>44.7</v>
       </c>
     </row>
@@ -4166,22 +4174,22 @@
       <c r="D97" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E97" s="41">
-        <v>0</v>
-      </c>
-      <c r="F97" s="41">
-        <v>0</v>
-      </c>
-      <c r="G97" s="40">
+      <c r="E97" s="30">
+        <v>0</v>
+      </c>
+      <c r="F97" s="30">
+        <v>0</v>
+      </c>
+      <c r="G97" s="42">
         <v>66.2</v>
       </c>
-      <c r="H97" s="42">
+      <c r="H97" s="51">
         <v>66.599999999999994</v>
       </c>
-      <c r="I97" s="27">
+      <c r="I97" s="55">
         <v>67.7</v>
       </c>
-      <c r="J97" s="26">
+      <c r="J97" s="50">
         <v>59</v>
       </c>
     </row>
@@ -4194,22 +4202,22 @@
       <c r="D98" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E98" s="41">
-        <v>0</v>
-      </c>
-      <c r="F98" s="41">
-        <v>0</v>
-      </c>
-      <c r="G98" s="40">
+      <c r="E98" s="30">
+        <v>0</v>
+      </c>
+      <c r="F98" s="30">
+        <v>0</v>
+      </c>
+      <c r="G98" s="42">
         <v>103.8</v>
       </c>
-      <c r="H98" s="42">
+      <c r="H98" s="51">
         <v>98.1</v>
       </c>
-      <c r="I98" s="27">
+      <c r="I98" s="55">
         <v>100</v>
       </c>
-      <c r="J98" s="26">
+      <c r="J98" s="50">
         <v>101.9</v>
       </c>
     </row>
@@ -4226,22 +4234,22 @@
       <c r="D99" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E99" s="41">
-        <v>0</v>
-      </c>
-      <c r="F99" s="41">
+      <c r="E99" s="30">
+        <v>0</v>
+      </c>
+      <c r="F99" s="30">
         <v>1</v>
       </c>
       <c r="G99" s="43">
         <v>89.2</v>
       </c>
-      <c r="H99" s="44">
+      <c r="H99" s="52">
         <v>83.7</v>
       </c>
-      <c r="I99" s="45">
+      <c r="I99" s="56">
         <v>92.6</v>
       </c>
-      <c r="J99" s="46">
+      <c r="J99" s="57">
         <v>81.3</v>
       </c>
     </row>
@@ -4254,22 +4262,22 @@
       <c r="D100" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E100" s="41">
-        <v>1</v>
-      </c>
-      <c r="F100" s="41">
+      <c r="E100" s="30">
+        <v>1</v>
+      </c>
+      <c r="F100" s="30">
         <v>1</v>
       </c>
       <c r="G100" s="43">
         <v>84.1</v>
       </c>
-      <c r="H100" s="44">
+      <c r="H100" s="52">
         <v>76.400000000000006</v>
       </c>
-      <c r="I100" s="45">
+      <c r="I100" s="56">
         <v>85.5</v>
       </c>
-      <c r="J100" s="47">
+      <c r="J100" s="58">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -4284,22 +4292,22 @@
       <c r="D101" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E101" s="41">
-        <v>0</v>
-      </c>
-      <c r="F101" s="41">
+      <c r="E101" s="30">
+        <v>0</v>
+      </c>
+      <c r="F101" s="30">
         <v>0</v>
       </c>
       <c r="G101" s="43">
         <v>87</v>
       </c>
-      <c r="H101" s="44">
+      <c r="H101" s="52">
         <v>84.5</v>
       </c>
-      <c r="I101" s="45">
+      <c r="I101" s="56">
         <v>97.2</v>
       </c>
-      <c r="J101" s="48">
+      <c r="J101" s="59">
         <v>125</v>
       </c>
     </row>
@@ -4312,22 +4320,22 @@
       <c r="D102" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E102" s="41">
-        <v>0</v>
-      </c>
-      <c r="F102" s="41">
+      <c r="E102" s="30">
+        <v>0</v>
+      </c>
+      <c r="F102" s="30">
         <v>0</v>
       </c>
       <c r="G102" s="43">
         <v>97.1</v>
       </c>
-      <c r="H102" s="44">
+      <c r="H102" s="52">
         <v>95.4</v>
       </c>
-      <c r="I102" s="45">
+      <c r="I102" s="56">
         <v>98.3</v>
       </c>
-      <c r="J102" s="49">
+      <c r="J102" s="60">
         <v>83.3</v>
       </c>
     </row>
@@ -4342,22 +4350,22 @@
       <c r="D103" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E103" s="41">
-        <v>0</v>
-      </c>
-      <c r="F103" s="41">
+      <c r="E103" s="30">
+        <v>0</v>
+      </c>
+      <c r="F103" s="30">
         <v>1</v>
       </c>
       <c r="G103" s="43">
         <v>89.7</v>
       </c>
-      <c r="H103" s="44">
+      <c r="H103" s="52">
         <v>89.2</v>
       </c>
-      <c r="I103" s="45">
+      <c r="I103" s="56">
         <v>100</v>
       </c>
-      <c r="J103" s="50">
+      <c r="J103" s="61">
         <v>91.7</v>
       </c>
     </row>
@@ -4370,22 +4378,22 @@
       <c r="D104" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E104" s="41">
-        <v>0</v>
-      </c>
-      <c r="F104" s="41">
+      <c r="E104" s="30">
+        <v>0</v>
+      </c>
+      <c r="F104" s="30">
         <v>0</v>
       </c>
       <c r="G104" s="43">
         <v>94</v>
       </c>
-      <c r="H104" s="44">
+      <c r="H104" s="52">
         <v>95.9</v>
       </c>
-      <c r="I104" s="45">
+      <c r="I104" s="56">
         <v>100</v>
       </c>
-      <c r="J104" s="50">
+      <c r="J104" s="61">
         <v>38.1</v>
       </c>
     </row>
@@ -4400,22 +4408,22 @@
       <c r="D105" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E105" s="41">
-        <v>0</v>
-      </c>
-      <c r="F105" s="41">
+      <c r="E105" s="30">
+        <v>0</v>
+      </c>
+      <c r="F105" s="30">
         <v>1</v>
       </c>
       <c r="G105" s="43">
         <v>94.8</v>
       </c>
-      <c r="H105" s="44">
+      <c r="H105" s="52">
         <v>83</v>
       </c>
-      <c r="I105" s="45">
+      <c r="I105" s="56">
         <v>94.8</v>
       </c>
-      <c r="J105" s="50">
+      <c r="J105" s="61">
         <v>80.7</v>
       </c>
     </row>
@@ -4428,22 +4436,22 @@
       <c r="D106" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="41">
-        <v>0</v>
-      </c>
-      <c r="F106" s="41">
+      <c r="E106" s="30">
+        <v>0</v>
+      </c>
+      <c r="F106" s="30">
         <v>0</v>
       </c>
       <c r="G106" s="43">
         <v>97.6</v>
       </c>
-      <c r="H106" s="44">
+      <c r="H106" s="52">
         <v>90.9</v>
       </c>
-      <c r="I106" s="45">
+      <c r="I106" s="56">
         <v>94.4</v>
       </c>
-      <c r="J106" s="50">
+      <c r="J106" s="61">
         <v>85.1</v>
       </c>
     </row>
@@ -4456,22 +4464,22 @@
       <c r="D107" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E107" s="41">
-        <v>0</v>
-      </c>
-      <c r="F107" s="41">
-        <v>0</v>
-      </c>
-      <c r="G107" s="51">
+      <c r="E107" s="30">
+        <v>0</v>
+      </c>
+      <c r="F107" s="30">
+        <v>0</v>
+      </c>
+      <c r="G107" s="44">
         <v>100</v>
       </c>
-      <c r="H107" s="44">
+      <c r="H107" s="52">
         <v>87.4</v>
       </c>
-      <c r="I107" s="45">
+      <c r="I107" s="56">
         <v>100</v>
       </c>
-      <c r="J107" s="50">
+      <c r="J107" s="61">
         <v>29.1</v>
       </c>
     </row>
@@ -4484,22 +4492,22 @@
       <c r="D108" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E108" s="41">
-        <v>0</v>
-      </c>
-      <c r="F108" s="41">
-        <v>0</v>
-      </c>
-      <c r="G108" s="52">
+      <c r="E108" s="30">
+        <v>0</v>
+      </c>
+      <c r="F108" s="30">
+        <v>0</v>
+      </c>
+      <c r="G108" s="45">
         <v>113.7</v>
       </c>
-      <c r="H108" s="44">
+      <c r="H108" s="52">
         <v>96.7</v>
       </c>
-      <c r="I108" s="45">
+      <c r="I108" s="56">
         <v>85</v>
       </c>
-      <c r="J108" s="50">
+      <c r="J108" s="61">
         <v>37.9</v>
       </c>
     </row>
@@ -4512,22 +4520,22 @@
       <c r="D109" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E109" s="41">
-        <v>0</v>
-      </c>
-      <c r="F109" s="41">
-        <v>0</v>
-      </c>
-      <c r="G109" s="52">
+      <c r="E109" s="30">
+        <v>0</v>
+      </c>
+      <c r="F109" s="30">
+        <v>0</v>
+      </c>
+      <c r="G109" s="45">
         <v>113.1</v>
       </c>
-      <c r="H109" s="44">
+      <c r="H109" s="52">
         <v>93.4</v>
       </c>
-      <c r="I109" s="45">
+      <c r="I109" s="56">
         <v>91.2</v>
       </c>
-      <c r="J109" s="50">
+      <c r="J109" s="61">
         <v>17.100000000000001</v>
       </c>
     </row>
@@ -4540,22 +4548,22 @@
       <c r="D110" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E110" s="41">
-        <v>0</v>
-      </c>
-      <c r="F110" s="41">
-        <v>0</v>
-      </c>
-      <c r="G110" s="51">
+      <c r="E110" s="30">
+        <v>0</v>
+      </c>
+      <c r="F110" s="30">
+        <v>0</v>
+      </c>
+      <c r="G110" s="44">
         <v>100.9</v>
       </c>
-      <c r="H110" s="44">
+      <c r="H110" s="52">
         <v>99.1</v>
       </c>
-      <c r="I110" s="45">
+      <c r="I110" s="56">
         <v>98.2</v>
       </c>
-      <c r="J110" s="50">
+      <c r="J110" s="61">
         <v>62.8</v>
       </c>
     </row>
@@ -4572,22 +4580,22 @@
       <c r="D111" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E111" s="53">
-        <v>1</v>
-      </c>
-      <c r="F111" s="53">
-        <v>1</v>
-      </c>
-      <c r="G111" s="54" t="s">
+      <c r="E111" s="31">
+        <v>1</v>
+      </c>
+      <c r="F111" s="31">
+        <v>1</v>
+      </c>
+      <c r="G111" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="H111" s="54" t="s">
+      <c r="H111" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="I111" s="54" t="s">
+      <c r="I111" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="J111" s="54" t="s">
+      <c r="J111" s="46" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4600,22 +4608,22 @@
       <c r="D112" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E112" s="55">
-        <v>0</v>
-      </c>
-      <c r="F112" s="55">
+      <c r="E112" s="32">
+        <v>0</v>
+      </c>
+      <c r="F112" s="32">
         <v>2</v>
       </c>
-      <c r="G112" s="56" t="s">
+      <c r="G112" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="H112" s="56" t="s">
+      <c r="H112" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="I112" s="56" t="s">
+      <c r="I112" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="J112" s="56" t="s">
+      <c r="J112" s="47" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4630,22 +4638,22 @@
       <c r="D113" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E113" s="55">
-        <v>0</v>
-      </c>
-      <c r="F113" s="55">
-        <v>0</v>
-      </c>
-      <c r="G113" s="56" t="s">
+      <c r="E113" s="32">
+        <v>0</v>
+      </c>
+      <c r="F113" s="32">
+        <v>0</v>
+      </c>
+      <c r="G113" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="H113" s="56" t="s">
+      <c r="H113" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="I113" s="56" t="s">
+      <c r="I113" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="J113" s="56" t="s">
+      <c r="J113" s="47" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4658,22 +4666,22 @@
       <c r="D114" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E114" s="55">
-        <v>0</v>
-      </c>
-      <c r="F114" s="55">
+      <c r="E114" s="32">
+        <v>0</v>
+      </c>
+      <c r="F114" s="32">
         <v>3</v>
       </c>
-      <c r="G114" s="56" t="s">
+      <c r="G114" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="H114" s="56" t="s">
+      <c r="H114" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="I114" s="56" t="s">
+      <c r="I114" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="J114" s="56" t="s">
+      <c r="J114" s="47" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4686,22 +4694,22 @@
       <c r="D115" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E115" s="55">
-        <v>0</v>
-      </c>
-      <c r="F115" s="55">
+      <c r="E115" s="32">
+        <v>0</v>
+      </c>
+      <c r="F115" s="32">
         <v>2</v>
       </c>
-      <c r="G115" s="56" t="s">
+      <c r="G115" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="H115" s="56" t="s">
+      <c r="H115" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="I115" s="56" t="s">
+      <c r="I115" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="J115" s="56" t="s">
+      <c r="J115" s="47" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4716,22 +4724,22 @@
       <c r="D116" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E116" s="55">
-        <v>0</v>
-      </c>
-      <c r="F116" s="55">
-        <v>0</v>
-      </c>
-      <c r="G116" s="56" t="s">
+      <c r="E116" s="32">
+        <v>0</v>
+      </c>
+      <c r="F116" s="32">
+        <v>0</v>
+      </c>
+      <c r="G116" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="H116" s="56" t="s">
+      <c r="H116" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="I116" s="56" t="s">
+      <c r="I116" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="J116" s="56" t="s">
+      <c r="J116" s="47" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4744,22 +4752,22 @@
       <c r="D117" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E117" s="55">
+      <c r="E117" s="32">
         <v>2</v>
       </c>
-      <c r="F117" s="55">
+      <c r="F117" s="32">
         <v>2</v>
       </c>
-      <c r="G117" s="56" t="s">
+      <c r="G117" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="H117" s="56" t="s">
+      <c r="H117" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="I117" s="56" t="s">
+      <c r="I117" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="J117" s="56" t="s">
+      <c r="J117" s="47" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4774,22 +4782,22 @@
       <c r="D118" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E118" s="55">
+      <c r="E118" s="32">
         <v>2</v>
       </c>
-      <c r="F118" s="55">
-        <v>0</v>
-      </c>
-      <c r="G118" s="56" t="s">
+      <c r="F118" s="32">
+        <v>0</v>
+      </c>
+      <c r="G118" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="H118" s="56" t="s">
+      <c r="H118" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="I118" s="56" t="s">
+      <c r="I118" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="J118" s="56" t="s">
+      <c r="J118" s="47" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4802,22 +4810,22 @@
       <c r="D119" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E119" s="55">
-        <v>0</v>
-      </c>
-      <c r="F119" s="55">
-        <v>1</v>
-      </c>
-      <c r="G119" s="56" t="s">
+      <c r="E119" s="32">
+        <v>0</v>
+      </c>
+      <c r="F119" s="32">
+        <v>1</v>
+      </c>
+      <c r="G119" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="H119" s="56" t="s">
+      <c r="H119" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="I119" s="56" t="s">
+      <c r="I119" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="J119" s="56" t="s">
+      <c r="J119" s="47" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4830,22 +4838,22 @@
       <c r="D120" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E120" s="55">
-        <v>1</v>
-      </c>
-      <c r="F120" s="55">
-        <v>1</v>
-      </c>
-      <c r="G120" s="56" t="s">
+      <c r="E120" s="32">
+        <v>1</v>
+      </c>
+      <c r="F120" s="32">
+        <v>1</v>
+      </c>
+      <c r="G120" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="H120" s="56" t="s">
+      <c r="H120" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="I120" s="56" t="s">
+      <c r="I120" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="J120" s="56" t="s">
+      <c r="J120" s="47" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4858,23 +4866,1715 @@
       <c r="D121" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E121" s="57">
-        <v>0</v>
-      </c>
-      <c r="F121" s="57">
-        <v>0</v>
-      </c>
-      <c r="G121" s="58" t="s">
+      <c r="E121" s="33">
+        <v>0</v>
+      </c>
+      <c r="F121" s="33">
+        <v>0</v>
+      </c>
+      <c r="G121" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="H121" s="58" t="s">
+      <c r="H121" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="I121" s="58" t="s">
+      <c r="I121" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="J121" s="58" t="s">
+      <c r="J121" s="48" t="s">
         <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3269337D-42BE-4995-8FBB-02D3A9C2DFE3}">
+  <dimension ref="A1:DS120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="20">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21">
+        <v>1</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <v>0</v>
+      </c>
+      <c r="N2" s="21">
+        <v>0</v>
+      </c>
+      <c r="O2" s="21">
+        <v>0</v>
+      </c>
+      <c r="P2" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>0</v>
+      </c>
+      <c r="R2" s="21">
+        <v>0</v>
+      </c>
+      <c r="S2" s="21">
+        <v>1</v>
+      </c>
+      <c r="T2" s="21">
+        <v>0</v>
+      </c>
+      <c r="U2" s="21">
+        <v>0</v>
+      </c>
+      <c r="V2" s="21">
+        <v>1</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0</v>
+      </c>
+      <c r="X2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="26">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="17">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="17">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="17">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="18">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="30">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="30">
+        <v>3</v>
+      </c>
+      <c r="BP2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="30">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="30">
+        <v>2</v>
+      </c>
+      <c r="CD2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="30">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="30">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="30">
+        <v>1</v>
+      </c>
+      <c r="CY2" s="30">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="30">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="31">
+        <v>1</v>
+      </c>
+      <c r="DJ2" s="32">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="32">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="32">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="32">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="32">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="32">
+        <v>2</v>
+      </c>
+      <c r="DP2" s="32">
+        <v>2</v>
+      </c>
+      <c r="DQ2" s="32">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="32">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <v>0</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <v>0</v>
+      </c>
+      <c r="T3" s="21">
+        <v>0</v>
+      </c>
+      <c r="U3" s="21">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21">
+        <v>0</v>
+      </c>
+      <c r="W3" s="21">
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="27">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="27">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="29">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="17">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="17">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="18">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="18">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="30">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="30">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="30">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30">
+        <v>2</v>
+      </c>
+      <c r="CB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="30">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="30">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="30">
+        <v>1</v>
+      </c>
+      <c r="CY3" s="30">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="30">
+        <v>1</v>
+      </c>
+      <c r="DB3" s="30">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="30">
+        <v>1</v>
+      </c>
+      <c r="DD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="30">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="30">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="31">
+        <v>1</v>
+      </c>
+      <c r="DJ3" s="32">
+        <v>2</v>
+      </c>
+      <c r="DK3" s="32">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="32">
+        <v>3</v>
+      </c>
+      <c r="DM3" s="32">
+        <v>2</v>
+      </c>
+      <c r="DN3" s="32">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="32">
+        <v>2</v>
+      </c>
+      <c r="DP3" s="32">
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="32">
+        <v>1</v>
+      </c>
+      <c r="DR3" s="32">
+        <v>1</v>
+      </c>
+      <c r="DS3" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>0</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>0</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>0</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>0</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>0</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>0</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>0</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:123" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>1</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>0</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>0</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>1</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>0</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>0</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>0</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>0</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>0</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>0</v>
+      </c>
+      <c r="B26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>0</v>
+      </c>
+      <c r="B27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>0</v>
+      </c>
+      <c r="B28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>0</v>
+      </c>
+      <c r="B29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>0</v>
+      </c>
+      <c r="B30" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>0</v>
+      </c>
+      <c r="B31" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>0</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>1</v>
+      </c>
+      <c r="B33" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>0</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>0</v>
+      </c>
+      <c r="B35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>0</v>
+      </c>
+      <c r="B36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>0</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <v>0</v>
+      </c>
+      <c r="B38" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <v>0</v>
+      </c>
+      <c r="B39" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>0</v>
+      </c>
+      <c r="B40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>1</v>
+      </c>
+      <c r="B41" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>0</v>
+      </c>
+      <c r="B42" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>0</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>0</v>
+      </c>
+      <c r="B44" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>0</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>1</v>
+      </c>
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>1</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>0</v>
+      </c>
+      <c r="B48" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>0</v>
+      </c>
+      <c r="B49" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>0</v>
+      </c>
+      <c r="B50" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>0</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>0</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>1</v>
+      </c>
+      <c r="B53" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
+        <v>0</v>
+      </c>
+      <c r="B54" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <v>0</v>
+      </c>
+      <c r="B55" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <v>0</v>
+      </c>
+      <c r="B56" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>0</v>
+      </c>
+      <c r="B57" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>0</v>
+      </c>
+      <c r="B58" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>0</v>
+      </c>
+      <c r="B59" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>0</v>
+      </c>
+      <c r="B60" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="30">
+        <v>0</v>
+      </c>
+      <c r="B61" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>0</v>
+      </c>
+      <c r="B62" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>1</v>
+      </c>
+      <c r="B63" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>3</v>
+      </c>
+      <c r="B64" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>0</v>
+      </c>
+      <c r="B65" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>0</v>
+      </c>
+      <c r="B66" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <v>0</v>
+      </c>
+      <c r="B67" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>0</v>
+      </c>
+      <c r="B68" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <v>0</v>
+      </c>
+      <c r="B69" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>0</v>
+      </c>
+      <c r="B70" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <v>0</v>
+      </c>
+      <c r="B71" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>0</v>
+      </c>
+      <c r="B72" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>0</v>
+      </c>
+      <c r="B73" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
+        <v>0</v>
+      </c>
+      <c r="B74" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
+        <v>0</v>
+      </c>
+      <c r="B75" s="30"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>0</v>
+      </c>
+      <c r="B76" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
+        <v>0</v>
+      </c>
+      <c r="B77" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="30">
+        <v>2</v>
+      </c>
+      <c r="B78" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="30">
+        <v>0</v>
+      </c>
+      <c r="B79" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="30">
+        <v>0</v>
+      </c>
+      <c r="B80" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="30">
+        <v>0</v>
+      </c>
+      <c r="B81" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="30">
+        <v>0</v>
+      </c>
+      <c r="B82" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="30">
+        <v>0</v>
+      </c>
+      <c r="B83" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="30">
+        <v>0</v>
+      </c>
+      <c r="B84" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="30">
+        <v>0</v>
+      </c>
+      <c r="B85" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="30">
+        <v>0</v>
+      </c>
+      <c r="B86" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <v>0</v>
+      </c>
+      <c r="B87" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="30">
+        <v>0</v>
+      </c>
+      <c r="B88" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="30">
+        <v>0</v>
+      </c>
+      <c r="B89" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="30">
+        <v>0</v>
+      </c>
+      <c r="B90" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="30">
+        <v>1</v>
+      </c>
+      <c r="B91" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="30">
+        <v>1</v>
+      </c>
+      <c r="B92" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="30">
+        <v>0</v>
+      </c>
+      <c r="B93" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="30">
+        <v>0</v>
+      </c>
+      <c r="B94" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="30">
+        <v>0</v>
+      </c>
+      <c r="B95" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="30">
+        <v>0</v>
+      </c>
+      <c r="B96" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="30">
+        <v>0</v>
+      </c>
+      <c r="B97" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="30">
+        <v>0</v>
+      </c>
+      <c r="B98" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="30">
+        <v>1</v>
+      </c>
+      <c r="B99" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="30">
+        <v>0</v>
+      </c>
+      <c r="B100" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="30">
+        <v>0</v>
+      </c>
+      <c r="B101" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="30">
+        <v>0</v>
+      </c>
+      <c r="B102" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="30">
+        <v>0</v>
+      </c>
+      <c r="B103" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="30">
+        <v>0</v>
+      </c>
+      <c r="B104" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="30">
+        <v>0</v>
+      </c>
+      <c r="B105" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="30">
+        <v>0</v>
+      </c>
+      <c r="B106" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="30">
+        <v>0</v>
+      </c>
+      <c r="B107" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="30">
+        <v>0</v>
+      </c>
+      <c r="B108" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="30">
+        <v>0</v>
+      </c>
+      <c r="B109" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="31">
+        <v>1</v>
+      </c>
+      <c r="B110" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="32">
+        <v>0</v>
+      </c>
+      <c r="B111" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="32">
+        <v>0</v>
+      </c>
+      <c r="B112" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="32">
+        <v>0</v>
+      </c>
+      <c r="B113" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="32">
+        <v>0</v>
+      </c>
+      <c r="B114" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="32">
+        <v>0</v>
+      </c>
+      <c r="B115" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="32">
+        <v>2</v>
+      </c>
+      <c r="B116" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="32">
+        <v>2</v>
+      </c>
+      <c r="B117" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="32">
+        <v>0</v>
+      </c>
+      <c r="B118" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="32">
+        <v>1</v>
+      </c>
+      <c r="B119" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="33">
+        <v>0</v>
+      </c>
+      <c r="B120" s="33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bali.xlsx
+++ b/bali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D03540-D0D6-4D51-A19F-D7ACC2E3F546}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF56634-7F70-4B6C-98FD-3FA0B3243BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{84E13336-C440-430E-965B-9F833A38D5CE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="189">
   <si>
     <t>Buleleng</t>
   </si>
@@ -560,87 +560,6 @@
   </si>
   <si>
     <t>x3</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>99.3</t>
-  </si>
-  <si>
-    <t>100.2</t>
-  </si>
-  <si>
-    <t>97.9</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>97.7</t>
-  </si>
-  <si>
-    <t>101.3</t>
-  </si>
-  <si>
-    <t>102.3</t>
-  </si>
-  <si>
-    <t>99.9</t>
-  </si>
-  <si>
-    <t>99.8</t>
-  </si>
-  <si>
-    <t>100.1</t>
-  </si>
-  <si>
-    <t>97.1</t>
-  </si>
-  <si>
-    <t>97.2</t>
-  </si>
-  <si>
-    <t>91.9</t>
-  </si>
-  <si>
-    <t>99.6</t>
-  </si>
-  <si>
-    <t>99.1</t>
-  </si>
-  <si>
-    <t>99.4</t>
-  </si>
-  <si>
-    <t>105.4</t>
-  </si>
-  <si>
-    <t>80.8</t>
-  </si>
-  <si>
-    <t>103.8</t>
-  </si>
-  <si>
-    <t>141.4</t>
-  </si>
-  <si>
-    <t>55.5</t>
-  </si>
-  <si>
-    <t>90.3</t>
-  </si>
-  <si>
-    <t>97.8</t>
-  </si>
-  <si>
-    <t>86.3</t>
-  </si>
-  <si>
-    <t>88.2</t>
-  </si>
-  <si>
-    <t>116.6</t>
   </si>
   <si>
     <t>x4</t>
@@ -940,11 +859,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,15 +907,6 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
@@ -1357,10 +1276,10 @@
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="6" width="4.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1382,17 +1301,17 @@
       <c r="F1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>205</v>
+      <c r="J1" s="37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1414,16 +1333,16 @@
       <c r="F2" s="20">
         <v>0</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="38">
         <v>88.5</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="38">
         <v>75.599999999999994</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="38">
         <v>87</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="38">
         <v>134.28</v>
       </c>
     </row>
@@ -1442,16 +1361,16 @@
       <c r="F3" s="21">
         <v>0</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="39">
         <v>105.4</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="39">
         <v>107.7</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="39">
         <v>100</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="39">
         <v>204.23</v>
       </c>
     </row>
@@ -1472,16 +1391,16 @@
       <c r="F4" s="21">
         <v>0</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="39">
         <v>112</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="39">
         <v>96.8</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="39">
         <v>100</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="39">
         <v>70.150000000000006</v>
       </c>
     </row>
@@ -1500,16 +1419,16 @@
       <c r="F5" s="21">
         <v>0</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="39">
         <v>95.1</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="39">
         <v>90.2</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="39">
         <v>87.7</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="39">
         <v>108.46</v>
       </c>
     </row>
@@ -1530,16 +1449,16 @@
       <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="39">
         <v>106.8</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="39">
         <v>91.3</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="39">
         <v>86.8</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="39">
         <v>171.71</v>
       </c>
     </row>
@@ -1558,16 +1477,16 @@
       <c r="F7" s="21">
         <v>0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="39">
         <v>124.1</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="39">
         <v>100</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="39">
         <v>100</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="39">
         <v>143.46</v>
       </c>
     </row>
@@ -1588,16 +1507,16 @@
       <c r="F8" s="21">
         <v>0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="39">
         <v>95.9</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="39">
         <v>90</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="39">
         <v>100</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="39">
         <v>121.54</v>
       </c>
     </row>
@@ -1616,16 +1535,16 @@
       <c r="F9" s="21">
         <v>0</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="39">
         <v>90.6</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="39">
         <v>84.5</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="39">
         <v>93.1</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="39">
         <v>179.34</v>
       </c>
     </row>
@@ -1644,16 +1563,16 @@
       <c r="F10" s="21">
         <v>0</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="39">
         <v>101.4</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="39">
         <v>100.6</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="39">
         <v>99.6</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="39">
         <v>85.97</v>
       </c>
     </row>
@@ -1674,16 +1593,16 @@
       <c r="F11" s="21">
         <v>0</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="39">
         <v>103.2</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="39">
         <v>100.2</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="39">
         <v>91.9</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="39">
         <v>117.24</v>
       </c>
     </row>
@@ -1702,16 +1621,16 @@
       <c r="F12" s="21">
         <v>0</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="39">
         <v>104.3</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="39">
         <v>92.4</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="39">
         <v>90</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="39">
         <v>205.57</v>
       </c>
     </row>
@@ -1732,16 +1651,16 @@
       <c r="F13" s="21">
         <v>0</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="39">
         <v>99.5</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="39">
         <v>97.1</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="39">
         <v>100</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="39">
         <v>99.21</v>
       </c>
     </row>
@@ -1760,16 +1679,16 @@
       <c r="F14" s="21">
         <v>0</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="39">
         <v>74.2</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="39">
         <v>62.8</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="39">
         <v>84.7</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="39">
         <v>107.56</v>
       </c>
     </row>
@@ -1790,16 +1709,16 @@
       <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="39">
         <v>80.8</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="39">
         <v>75.599999999999994</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="39">
         <v>91.9</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="39">
         <v>114.82</v>
       </c>
     </row>
@@ -1818,16 +1737,16 @@
       <c r="F16" s="21">
         <v>0</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="39">
         <v>80.400000000000006</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="39">
         <v>74.099999999999994</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="39">
         <v>82.9</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="39">
         <v>101.46</v>
       </c>
     </row>
@@ -1846,16 +1765,16 @@
       <c r="F17" s="21">
         <v>0</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="39">
         <v>65</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="39">
         <v>58.2</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="39">
         <v>84.2</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="39">
         <v>88.04</v>
       </c>
     </row>
@@ -1876,16 +1795,16 @@
       <c r="F18" s="21">
         <v>0</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="39">
         <v>63</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="39">
         <v>45.7</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="39">
         <v>66.099999999999994</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="39">
         <v>25.87</v>
       </c>
     </row>
@@ -1904,16 +1823,16 @@
       <c r="F19" s="21">
         <v>1</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="39">
         <v>53.4</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="39">
         <v>40</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="39">
         <v>74.8</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="39">
         <v>96.77</v>
       </c>
     </row>
@@ -1934,16 +1853,16 @@
       <c r="F20" s="21">
         <v>0</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="39">
         <v>112.9</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="39">
         <v>92.3</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="39">
         <v>98</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="39">
         <v>217.99</v>
       </c>
     </row>
@@ -1962,16 +1881,16 @@
       <c r="F21" s="21">
         <v>0</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="40">
         <v>109.5</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="40">
         <v>90.4</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="40">
         <v>83.7</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="40">
         <v>218.48</v>
       </c>
     </row>
@@ -1994,16 +1913,16 @@
       <c r="F22" s="22">
         <v>0</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="41">
         <v>99</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="41">
         <v>90</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="41">
         <v>91.62</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="41">
         <v>84.07</v>
       </c>
     </row>
@@ -2022,16 +1941,16 @@
       <c r="F23" s="23">
         <v>0</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="42">
         <v>100</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="42">
         <v>91</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="42">
         <v>91.26</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="42">
         <v>128.63999999999999</v>
       </c>
     </row>
@@ -2052,16 +1971,16 @@
       <c r="F24" s="23">
         <v>1</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="42">
         <v>103</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="42">
         <v>100</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="42">
         <v>97.58</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="42">
         <v>30.15</v>
       </c>
     </row>
@@ -2080,16 +1999,16 @@
       <c r="F25" s="23">
         <v>0</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="42">
         <v>90</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="42">
         <v>85</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="42">
         <v>94.38</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="42">
         <v>74.650000000000006</v>
       </c>
     </row>
@@ -2110,16 +2029,16 @@
       <c r="F26" s="23">
         <v>0</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="42">
         <v>78</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="42">
         <v>74</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="42">
         <v>100</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="42">
         <v>92.53</v>
       </c>
     </row>
@@ -2138,16 +2057,16 @@
       <c r="F27" s="23">
         <v>0</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="42">
         <v>102</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="42">
         <v>95</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="42">
         <v>92.27</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="42">
         <v>86.63</v>
       </c>
     </row>
@@ -2168,16 +2087,16 @@
       <c r="F28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="42">
         <v>95</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="42">
         <v>95</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="42">
         <v>89.84</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="42">
         <v>37.69</v>
       </c>
     </row>
@@ -2196,16 +2115,16 @@
       <c r="F29" s="23">
         <v>0</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="42">
         <v>78</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="42">
         <v>72</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="42">
         <v>83.9</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="42">
         <v>17.73</v>
       </c>
     </row>
@@ -2224,16 +2143,16 @@
       <c r="F30" s="24">
         <v>0</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="43">
         <v>100</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="43">
         <v>101</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="43">
         <v>95.58</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="43">
         <v>176.03</v>
       </c>
     </row>
@@ -2256,16 +2175,16 @@
       <c r="F31" s="25">
         <v>0</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="41">
         <v>66.400000000000006</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="41">
         <v>62.2</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="41">
         <v>62.2</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="41">
         <v>42</v>
       </c>
     </row>
@@ -2284,16 +2203,16 @@
       <c r="F32" s="25">
         <v>0</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="42">
         <v>77.400000000000006</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="42">
         <v>74.2</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="42">
         <v>77.400000000000006</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="42">
         <v>13</v>
       </c>
     </row>
@@ -2314,16 +2233,16 @@
       <c r="F33" s="25">
         <v>0</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="42">
         <v>79.099999999999994</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="42">
         <v>75.400000000000006</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="42">
         <v>75.400000000000006</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="42">
         <v>52</v>
       </c>
     </row>
@@ -2342,16 +2261,16 @@
       <c r="F34" s="25">
         <v>0</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="42">
         <v>72.5</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="42">
         <v>69.900000000000006</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="42">
         <v>69.900000000000006</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="42">
         <v>60</v>
       </c>
     </row>
@@ -2370,16 +2289,16 @@
       <c r="F35" s="25">
         <v>0</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="42">
         <v>85.4</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="42">
         <v>87.3</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="42">
         <v>85.6</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="42">
         <v>65</v>
       </c>
     </row>
@@ -2398,16 +2317,16 @@
       <c r="F36" s="25">
         <v>0</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="42">
         <v>73.900000000000006</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="42">
         <v>72.3</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="42">
         <v>69</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="42">
         <v>70</v>
       </c>
     </row>
@@ -2428,16 +2347,16 @@
       <c r="F37" s="25">
         <v>0</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="42">
         <v>81.8</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="42">
         <v>76.900000000000006</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="42">
         <v>76.900000000000006</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="42">
         <v>44</v>
       </c>
     </row>
@@ -2456,16 +2375,16 @@
       <c r="F38" s="25">
         <v>0</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="42">
         <v>83.8</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="42">
         <v>78</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="42">
         <v>78.599999999999994</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="42">
         <v>98</v>
       </c>
     </row>
@@ -2484,16 +2403,16 @@
       <c r="F39" s="27">
         <v>2</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="42">
         <v>82.3</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="42">
         <v>72.900000000000006</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="42">
         <v>72.900000000000006</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="42">
         <v>101</v>
       </c>
     </row>
@@ -2514,16 +2433,16 @@
       <c r="F40" s="27">
         <v>1</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="42">
         <v>81.7</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="42">
         <v>71.2</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="42">
         <v>5.5</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="42">
         <v>63</v>
       </c>
     </row>
@@ -2542,16 +2461,16 @@
       <c r="F41" s="25">
         <v>0</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="42">
         <v>63.5</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="42">
         <v>62.1</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="42">
         <v>117.1</v>
       </c>
-      <c r="J41" s="39">
+      <c r="J41" s="42">
         <v>97</v>
       </c>
     </row>
@@ -2572,16 +2491,16 @@
       <c r="F42" s="27">
         <v>1</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="42">
         <v>86.8</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="42">
         <v>71.900000000000006</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I42" s="42">
         <v>74.400000000000006</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J42" s="42">
         <v>28</v>
       </c>
     </row>
@@ -2602,16 +2521,16 @@
       <c r="F43" s="29">
         <v>2</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="43">
         <v>85.6</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="43">
         <v>74.400000000000006</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="43">
         <v>71.900000000000006</v>
       </c>
-      <c r="J43" s="40">
+      <c r="J43" s="43">
         <v>139</v>
       </c>
     </row>
@@ -2634,7 +2553,7 @@
       <c r="F44" s="17">
         <v>0</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="44">
         <v>85</v>
       </c>
       <c r="H44" s="49">
@@ -2662,7 +2581,7 @@
       <c r="F45" s="17">
         <v>2</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="44">
         <v>91.8</v>
       </c>
       <c r="H45" s="49">
@@ -2692,7 +2611,7 @@
       <c r="F46" s="17">
         <v>0</v>
       </c>
-      <c r="G46" s="41">
+      <c r="G46" s="44">
         <v>93.4</v>
       </c>
       <c r="H46" s="49">
@@ -2720,7 +2639,7 @@
       <c r="F47" s="17">
         <v>1</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="44">
         <v>122.9</v>
       </c>
       <c r="H47" s="49">
@@ -2750,7 +2669,7 @@
       <c r="F48" s="17">
         <v>1</v>
       </c>
-      <c r="G48" s="41">
+      <c r="G48" s="44">
         <v>79.3</v>
       </c>
       <c r="H48" s="49">
@@ -2778,7 +2697,7 @@
       <c r="F49" s="17">
         <v>0</v>
       </c>
-      <c r="G49" s="41">
+      <c r="G49" s="44">
         <v>68.8</v>
       </c>
       <c r="H49" s="49">
@@ -2808,7 +2727,7 @@
       <c r="F50" s="17">
         <v>0</v>
       </c>
-      <c r="G50" s="41">
+      <c r="G50" s="44">
         <v>77</v>
       </c>
       <c r="H50" s="49">
@@ -2836,7 +2755,7 @@
       <c r="F51" s="17">
         <v>0</v>
       </c>
-      <c r="G51" s="41">
+      <c r="G51" s="44">
         <v>102</v>
       </c>
       <c r="H51" s="49">
@@ -2866,7 +2785,7 @@
       <c r="F52" s="17">
         <v>0</v>
       </c>
-      <c r="G52" s="41">
+      <c r="G52" s="44">
         <v>96.2</v>
       </c>
       <c r="H52" s="49">
@@ -2894,7 +2813,7 @@
       <c r="F53" s="17">
         <v>0</v>
       </c>
-      <c r="G53" s="41">
+      <c r="G53" s="44">
         <v>64.8</v>
       </c>
       <c r="H53" s="49">
@@ -2926,7 +2845,7 @@
       <c r="F54" s="18">
         <v>1</v>
       </c>
-      <c r="G54" s="42">
+      <c r="G54" s="45">
         <v>85.1</v>
       </c>
       <c r="H54" s="50">
@@ -2954,7 +2873,7 @@
       <c r="F55" s="18">
         <v>1</v>
       </c>
-      <c r="G55" s="42">
+      <c r="G55" s="45">
         <v>71</v>
       </c>
       <c r="H55" s="50">
@@ -2984,7 +2903,7 @@
       <c r="F56" s="30">
         <v>0</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="45">
         <v>89.5</v>
       </c>
       <c r="H56" s="50">
@@ -3014,7 +2933,7 @@
       <c r="F57" s="30">
         <v>0</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="45">
         <v>94.6</v>
       </c>
       <c r="H57" s="50">
@@ -3044,7 +2963,7 @@
       <c r="F58" s="30">
         <v>0</v>
       </c>
-      <c r="G58" s="42">
+      <c r="G58" s="45">
         <v>87.1</v>
       </c>
       <c r="H58" s="50">
@@ -3074,7 +2993,7 @@
       <c r="F59" s="30">
         <v>1</v>
       </c>
-      <c r="G59" s="42">
+      <c r="G59" s="45">
         <v>89.5</v>
       </c>
       <c r="H59" s="50">
@@ -3104,7 +3023,7 @@
       <c r="F60" s="30">
         <v>1</v>
       </c>
-      <c r="G60" s="42">
+      <c r="G60" s="45">
         <v>99.1</v>
       </c>
       <c r="H60" s="50">
@@ -3132,7 +3051,7 @@
       <c r="F61" s="30">
         <v>0</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="45">
         <v>83</v>
       </c>
       <c r="H61" s="50">
@@ -3162,7 +3081,7 @@
       <c r="F62" s="30">
         <v>0</v>
       </c>
-      <c r="G62" s="42">
+      <c r="G62" s="45">
         <v>108.2</v>
       </c>
       <c r="H62" s="50">
@@ -3190,7 +3109,7 @@
       <c r="F63" s="30">
         <v>0</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="45">
         <v>99.4</v>
       </c>
       <c r="H63" s="50">
@@ -3220,7 +3139,7 @@
       <c r="F64" s="30">
         <v>0</v>
       </c>
-      <c r="G64" s="42">
+      <c r="G64" s="45">
         <v>104.3</v>
       </c>
       <c r="H64" s="51">
@@ -3248,7 +3167,7 @@
       <c r="F65" s="30">
         <v>0</v>
       </c>
-      <c r="G65" s="42">
+      <c r="G65" s="45">
         <v>135.19999999999999</v>
       </c>
       <c r="H65" s="51">
@@ -3280,7 +3199,7 @@
       <c r="F66" s="30">
         <v>0</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="45">
         <v>70.8</v>
       </c>
       <c r="H66" s="51">
@@ -3308,7 +3227,7 @@
       <c r="F67" s="30">
         <v>0</v>
       </c>
-      <c r="G67" s="42">
+      <c r="G67" s="45">
         <v>86.7</v>
       </c>
       <c r="H67" s="51">
@@ -3338,7 +3257,7 @@
       <c r="F68" s="30">
         <v>0</v>
       </c>
-      <c r="G68" s="42">
+      <c r="G68" s="45">
         <v>74.599999999999994</v>
       </c>
       <c r="H68" s="51">
@@ -3368,7 +3287,7 @@
       <c r="F69" s="30">
         <v>0</v>
       </c>
-      <c r="G69" s="42">
+      <c r="G69" s="45">
         <v>93.9</v>
       </c>
       <c r="H69" s="51">
@@ -3396,7 +3315,7 @@
       <c r="F70" s="30">
         <v>0</v>
       </c>
-      <c r="G70" s="42">
+      <c r="G70" s="45">
         <v>75.5</v>
       </c>
       <c r="H70" s="51">
@@ -3426,7 +3345,7 @@
       <c r="F71" s="30">
         <v>0</v>
       </c>
-      <c r="G71" s="42">
+      <c r="G71" s="45">
         <v>66.5</v>
       </c>
       <c r="H71" s="51">
@@ -3454,7 +3373,7 @@
       <c r="F72" s="30">
         <v>0</v>
       </c>
-      <c r="G72" s="42">
+      <c r="G72" s="45">
         <v>75.2</v>
       </c>
       <c r="H72" s="51">
@@ -3484,7 +3403,7 @@
       <c r="F73" s="30">
         <v>1</v>
       </c>
-      <c r="G73" s="42">
+      <c r="G73" s="45">
         <v>79.3</v>
       </c>
       <c r="H73" s="51">
@@ -3512,7 +3431,7 @@
       <c r="F74" s="30">
         <v>0</v>
       </c>
-      <c r="G74" s="42">
+      <c r="G74" s="45">
         <v>76.599999999999994</v>
       </c>
       <c r="H74" s="51">
@@ -3542,7 +3461,7 @@
       <c r="F75" s="30">
         <v>1</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="45">
         <v>85.3</v>
       </c>
       <c r="H75" s="51">
@@ -3568,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="30"/>
-      <c r="G76" s="42">
+      <c r="G76" s="45">
         <v>77.7</v>
       </c>
       <c r="H76" s="51">
@@ -3598,7 +3517,7 @@
       <c r="F77" s="30">
         <v>2</v>
       </c>
-      <c r="G77" s="42">
+      <c r="G77" s="45">
         <v>92</v>
       </c>
       <c r="H77" s="51">
@@ -3626,7 +3545,7 @@
       <c r="F78" s="30">
         <v>2</v>
       </c>
-      <c r="G78" s="42">
+      <c r="G78" s="45">
         <v>79.3</v>
       </c>
       <c r="H78" s="51">
@@ -3658,7 +3577,7 @@
       <c r="F79" s="30">
         <v>0</v>
       </c>
-      <c r="G79" s="42">
+      <c r="G79" s="45">
         <v>98.1</v>
       </c>
       <c r="H79" s="51">
@@ -3686,7 +3605,7 @@
       <c r="F80" s="30">
         <v>0</v>
       </c>
-      <c r="G80" s="42">
+      <c r="G80" s="45">
         <v>77</v>
       </c>
       <c r="H80" s="51">
@@ -3714,7 +3633,7 @@
       <c r="F81" s="30">
         <v>0</v>
       </c>
-      <c r="G81" s="42">
+      <c r="G81" s="45">
         <v>87.4</v>
       </c>
       <c r="H81" s="51">
@@ -3744,7 +3663,7 @@
       <c r="F82" s="30">
         <v>0</v>
       </c>
-      <c r="G82" s="42">
+      <c r="G82" s="45">
         <v>94.5</v>
       </c>
       <c r="H82" s="51">
@@ -3772,7 +3691,7 @@
       <c r="F83" s="30">
         <v>0</v>
       </c>
-      <c r="G83" s="42">
+      <c r="G83" s="45">
         <v>89.5</v>
       </c>
       <c r="H83" s="51">
@@ -3802,7 +3721,7 @@
       <c r="F84" s="30">
         <v>0</v>
       </c>
-      <c r="G84" s="42">
+      <c r="G84" s="45">
         <v>52.8</v>
       </c>
       <c r="H84" s="51">
@@ -3832,7 +3751,7 @@
       <c r="F85" s="30">
         <v>0</v>
       </c>
-      <c r="G85" s="42">
+      <c r="G85" s="45">
         <v>88</v>
       </c>
       <c r="H85" s="51">
@@ -3862,7 +3781,7 @@
       <c r="F86" s="30">
         <v>0</v>
       </c>
-      <c r="G86" s="42">
+      <c r="G86" s="45">
         <v>100.5</v>
       </c>
       <c r="H86" s="51">
@@ -3890,7 +3809,7 @@
       <c r="F87" s="30">
         <v>0</v>
       </c>
-      <c r="G87" s="42">
+      <c r="G87" s="45">
         <v>98.5</v>
       </c>
       <c r="H87" s="51">
@@ -3920,7 +3839,7 @@
       <c r="F88" s="30">
         <v>1</v>
       </c>
-      <c r="G88" s="42">
+      <c r="G88" s="45">
         <v>92.1</v>
       </c>
       <c r="H88" s="51">
@@ -3948,7 +3867,7 @@
       <c r="F89" s="30">
         <v>0</v>
       </c>
-      <c r="G89" s="42">
+      <c r="G89" s="45">
         <v>77.599999999999994</v>
       </c>
       <c r="H89" s="51">
@@ -3978,7 +3897,7 @@
       <c r="F90" s="30">
         <v>0</v>
       </c>
-      <c r="G90" s="42">
+      <c r="G90" s="45">
         <v>84</v>
       </c>
       <c r="H90" s="51">
@@ -4006,7 +3925,7 @@
       <c r="F91" s="30">
         <v>0</v>
       </c>
-      <c r="G91" s="42">
+      <c r="G91" s="45">
         <v>84.1</v>
       </c>
       <c r="H91" s="51">
@@ -4036,7 +3955,7 @@
       <c r="F92" s="30">
         <v>0</v>
       </c>
-      <c r="G92" s="42">
+      <c r="G92" s="45">
         <v>88.8</v>
       </c>
       <c r="H92" s="51">
@@ -4064,7 +3983,7 @@
       <c r="F93" s="30">
         <v>0</v>
       </c>
-      <c r="G93" s="42">
+      <c r="G93" s="45">
         <v>96.7</v>
       </c>
       <c r="H93" s="51">
@@ -4094,7 +4013,7 @@
       <c r="F94" s="30">
         <v>0</v>
       </c>
-      <c r="G94" s="42">
+      <c r="G94" s="45">
         <v>87.5</v>
       </c>
       <c r="H94" s="51">
@@ -4122,7 +4041,7 @@
       <c r="F95" s="30">
         <v>0</v>
       </c>
-      <c r="G95" s="42">
+      <c r="G95" s="45">
         <v>94.3</v>
       </c>
       <c r="H95" s="51">
@@ -4152,7 +4071,7 @@
       <c r="F96" s="30">
         <v>0</v>
       </c>
-      <c r="G96" s="42">
+      <c r="G96" s="45">
         <v>96.2</v>
       </c>
       <c r="H96" s="51">
@@ -4180,7 +4099,7 @@
       <c r="F97" s="30">
         <v>0</v>
       </c>
-      <c r="G97" s="42">
+      <c r="G97" s="45">
         <v>66.2</v>
       </c>
       <c r="H97" s="51">
@@ -4208,7 +4127,7 @@
       <c r="F98" s="30">
         <v>0</v>
       </c>
-      <c r="G98" s="42">
+      <c r="G98" s="45">
         <v>103.8</v>
       </c>
       <c r="H98" s="51">
@@ -4240,7 +4159,7 @@
       <c r="F99" s="30">
         <v>1</v>
       </c>
-      <c r="G99" s="43">
+      <c r="G99" s="46">
         <v>89.2</v>
       </c>
       <c r="H99" s="52">
@@ -4268,7 +4187,7 @@
       <c r="F100" s="30">
         <v>1</v>
       </c>
-      <c r="G100" s="43">
+      <c r="G100" s="46">
         <v>84.1</v>
       </c>
       <c r="H100" s="52">
@@ -4298,7 +4217,7 @@
       <c r="F101" s="30">
         <v>0</v>
       </c>
-      <c r="G101" s="43">
+      <c r="G101" s="46">
         <v>87</v>
       </c>
       <c r="H101" s="52">
@@ -4326,7 +4245,7 @@
       <c r="F102" s="30">
         <v>0</v>
       </c>
-      <c r="G102" s="43">
+      <c r="G102" s="46">
         <v>97.1</v>
       </c>
       <c r="H102" s="52">
@@ -4356,7 +4275,7 @@
       <c r="F103" s="30">
         <v>1</v>
       </c>
-      <c r="G103" s="43">
+      <c r="G103" s="46">
         <v>89.7</v>
       </c>
       <c r="H103" s="52">
@@ -4384,7 +4303,7 @@
       <c r="F104" s="30">
         <v>0</v>
       </c>
-      <c r="G104" s="43">
+      <c r="G104" s="46">
         <v>94</v>
       </c>
       <c r="H104" s="52">
@@ -4414,7 +4333,7 @@
       <c r="F105" s="30">
         <v>1</v>
       </c>
-      <c r="G105" s="43">
+      <c r="G105" s="46">
         <v>94.8</v>
       </c>
       <c r="H105" s="52">
@@ -4442,7 +4361,7 @@
       <c r="F106" s="30">
         <v>0</v>
       </c>
-      <c r="G106" s="43">
+      <c r="G106" s="46">
         <v>97.6</v>
       </c>
       <c r="H106" s="52">
@@ -4470,7 +4389,7 @@
       <c r="F107" s="30">
         <v>0</v>
       </c>
-      <c r="G107" s="44">
+      <c r="G107" s="47">
         <v>100</v>
       </c>
       <c r="H107" s="52">
@@ -4498,7 +4417,7 @@
       <c r="F108" s="30">
         <v>0</v>
       </c>
-      <c r="G108" s="45">
+      <c r="G108" s="48">
         <v>113.7</v>
       </c>
       <c r="H108" s="52">
@@ -4526,7 +4445,7 @@
       <c r="F109" s="30">
         <v>0</v>
       </c>
-      <c r="G109" s="45">
+      <c r="G109" s="48">
         <v>113.1</v>
       </c>
       <c r="H109" s="52">
@@ -4554,7 +4473,7 @@
       <c r="F110" s="30">
         <v>0</v>
       </c>
-      <c r="G110" s="44">
+      <c r="G110" s="47">
         <v>100.9</v>
       </c>
       <c r="H110" s="52">
@@ -4578,7 +4497,7 @@
         <v>164</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="E111" s="31">
         <v>1</v>
@@ -4586,17 +4505,17 @@
       <c r="F111" s="31">
         <v>1</v>
       </c>
-      <c r="G111" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H111" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="I111" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="J111" s="46" t="s">
-        <v>195</v>
+      <c r="G111" s="32">
+        <v>100</v>
+      </c>
+      <c r="H111" s="32">
+        <v>99.8</v>
+      </c>
+      <c r="I111" s="32">
+        <v>99.8</v>
+      </c>
+      <c r="J111" s="32">
+        <v>105.4</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4606,25 +4525,25 @@
       <c r="B112" s="3"/>
       <c r="C112" s="9"/>
       <c r="D112" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E112" s="32">
-        <v>0</v>
-      </c>
-      <c r="F112" s="32">
+        <v>180</v>
+      </c>
+      <c r="E112" s="33">
+        <v>0</v>
+      </c>
+      <c r="F112" s="33">
         <v>2</v>
       </c>
-      <c r="G112" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="H112" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="I112" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="J112" s="47" t="s">
-        <v>196</v>
+      <c r="G112" s="34">
+        <v>99.3</v>
+      </c>
+      <c r="H112" s="34">
+        <v>100</v>
+      </c>
+      <c r="I112" s="34">
+        <v>100</v>
+      </c>
+      <c r="J112" s="34">
+        <v>80.8</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -4636,25 +4555,25 @@
         <v>165</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E113" s="32">
-        <v>0</v>
-      </c>
-      <c r="F113" s="32">
-        <v>0</v>
-      </c>
-      <c r="G113" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="H113" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="I113" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="J113" s="47" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="E113" s="33">
+        <v>0</v>
+      </c>
+      <c r="F113" s="33">
+        <v>0</v>
+      </c>
+      <c r="G113" s="34">
+        <v>100.2</v>
+      </c>
+      <c r="H113" s="34">
+        <v>100.1</v>
+      </c>
+      <c r="I113" s="34">
+        <v>99.9</v>
+      </c>
+      <c r="J113" s="34">
+        <v>103.8</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4664,25 +4583,25 @@
       <c r="B114" s="3"/>
       <c r="C114" s="9"/>
       <c r="D114" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E114" s="32">
-        <v>0</v>
-      </c>
-      <c r="F114" s="32">
+        <v>182</v>
+      </c>
+      <c r="E114" s="33">
+        <v>0</v>
+      </c>
+      <c r="F114" s="33">
         <v>3</v>
       </c>
-      <c r="G114" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="H114" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="I114" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="J114" s="47" t="s">
-        <v>185</v>
+      <c r="G114" s="34">
+        <v>97.9</v>
+      </c>
+      <c r="H114" s="34">
+        <v>97.1</v>
+      </c>
+      <c r="I114" s="34">
+        <v>100</v>
+      </c>
+      <c r="J114" s="34">
+        <v>102.3</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -4694,23 +4613,23 @@
       <c r="D115" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E115" s="32">
-        <v>0</v>
-      </c>
-      <c r="F115" s="32">
+      <c r="E115" s="33">
+        <v>0</v>
+      </c>
+      <c r="F115" s="33">
         <v>2</v>
       </c>
-      <c r="G115" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="H115" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="I115" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="J115" s="47" t="s">
-        <v>198</v>
+      <c r="G115" s="34">
+        <v>99</v>
+      </c>
+      <c r="H115" s="34">
+        <v>97.2</v>
+      </c>
+      <c r="I115" s="34">
+        <v>100</v>
+      </c>
+      <c r="J115" s="34">
+        <v>141.4</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -4722,25 +4641,25 @@
         <v>167</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E116" s="32">
-        <v>0</v>
-      </c>
-      <c r="F116" s="32">
-        <v>0</v>
-      </c>
-      <c r="G116" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="H116" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="I116" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="J116" s="47" t="s">
-        <v>199</v>
+      <c r="E116" s="33">
+        <v>0</v>
+      </c>
+      <c r="F116" s="33">
+        <v>0</v>
+      </c>
+      <c r="G116" s="34">
+        <v>97.7</v>
+      </c>
+      <c r="H116" s="34">
+        <v>91.9</v>
+      </c>
+      <c r="I116" s="34">
+        <v>99.8</v>
+      </c>
+      <c r="J116" s="34">
+        <v>55.5</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4750,25 +4669,25 @@
       <c r="B117" s="3"/>
       <c r="C117" s="9"/>
       <c r="D117" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E117" s="32">
+        <v>184</v>
+      </c>
+      <c r="E117" s="33">
         <v>2</v>
       </c>
-      <c r="F117" s="32">
+      <c r="F117" s="33">
         <v>2</v>
       </c>
-      <c r="G117" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="H117" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="I117" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="J117" s="47" t="s">
-        <v>200</v>
+      <c r="G117" s="34">
+        <v>100</v>
+      </c>
+      <c r="H117" s="34">
+        <v>99.6</v>
+      </c>
+      <c r="I117" s="34">
+        <v>100</v>
+      </c>
+      <c r="J117" s="34">
+        <v>90.3</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -4780,25 +4699,25 @@
         <v>168</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E118" s="32">
+        <v>185</v>
+      </c>
+      <c r="E118" s="33">
         <v>2</v>
       </c>
-      <c r="F118" s="32">
-        <v>0</v>
-      </c>
-      <c r="G118" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="H118" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="I118" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="J118" s="47" t="s">
-        <v>202</v>
+      <c r="F118" s="33">
+        <v>0</v>
+      </c>
+      <c r="G118" s="34">
+        <v>101.3</v>
+      </c>
+      <c r="H118" s="34">
+        <v>99.1</v>
+      </c>
+      <c r="I118" s="34">
+        <v>97.8</v>
+      </c>
+      <c r="J118" s="34">
+        <v>86.3</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -4808,25 +4727,25 @@
       <c r="B119" s="3"/>
       <c r="C119" s="9"/>
       <c r="D119" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E119" s="32">
-        <v>0</v>
-      </c>
-      <c r="F119" s="32">
-        <v>1</v>
-      </c>
-      <c r="G119" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="H119" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="I119" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="J119" s="47" t="s">
-        <v>203</v>
+        <v>186</v>
+      </c>
+      <c r="E119" s="33">
+        <v>0</v>
+      </c>
+      <c r="F119" s="33">
+        <v>1</v>
+      </c>
+      <c r="G119" s="34">
+        <v>102.3</v>
+      </c>
+      <c r="H119" s="34">
+        <v>100.2</v>
+      </c>
+      <c r="I119" s="34">
+        <v>97.8</v>
+      </c>
+      <c r="J119" s="34">
+        <v>88.2</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -4836,25 +4755,25 @@
       <c r="B120" s="3"/>
       <c r="C120" s="9"/>
       <c r="D120" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E120" s="32">
-        <v>1</v>
-      </c>
-      <c r="F120" s="32">
-        <v>1</v>
-      </c>
-      <c r="G120" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="H120" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="I120" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="J120" s="47" t="s">
-        <v>196</v>
+        <v>187</v>
+      </c>
+      <c r="E120" s="33">
+        <v>1</v>
+      </c>
+      <c r="F120" s="33">
+        <v>1</v>
+      </c>
+      <c r="G120" s="34">
+        <v>99.9</v>
+      </c>
+      <c r="H120" s="34">
+        <v>99.4</v>
+      </c>
+      <c r="I120" s="34">
+        <v>100</v>
+      </c>
+      <c r="J120" s="34">
+        <v>80.8</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -4864,25 +4783,25 @@
       <c r="B121" s="3"/>
       <c r="C121" s="11"/>
       <c r="D121" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E121" s="33">
-        <v>0</v>
-      </c>
-      <c r="F121" s="33">
-        <v>0</v>
-      </c>
-      <c r="G121" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H121" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="I121" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="J121" s="48" t="s">
-        <v>204</v>
+      <c r="E121" s="35">
+        <v>0</v>
+      </c>
+      <c r="F121" s="35">
+        <v>0</v>
+      </c>
+      <c r="G121" s="36">
+        <v>102.3</v>
+      </c>
+      <c r="H121" s="36">
+        <v>100.1</v>
+      </c>
+      <c r="I121" s="36">
+        <v>97.9</v>
+      </c>
+      <c r="J121" s="36">
+        <v>116.6</v>
       </c>
     </row>
   </sheetData>
@@ -5246,34 +5165,34 @@
       <c r="DI2" s="31">
         <v>1</v>
       </c>
-      <c r="DJ2" s="32">
-        <v>0</v>
-      </c>
-      <c r="DK2" s="32">
-        <v>0</v>
-      </c>
-      <c r="DL2" s="32">
-        <v>0</v>
-      </c>
-      <c r="DM2" s="32">
-        <v>0</v>
-      </c>
-      <c r="DN2" s="32">
-        <v>0</v>
-      </c>
-      <c r="DO2" s="32">
+      <c r="DJ2" s="33">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="33">
+        <v>0</v>
+      </c>
+      <c r="DL2" s="33">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="33">
+        <v>0</v>
+      </c>
+      <c r="DN2" s="33">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="33">
         <v>2</v>
       </c>
-      <c r="DP2" s="32">
+      <c r="DP2" s="33">
         <v>2</v>
       </c>
-      <c r="DQ2" s="32">
-        <v>0</v>
-      </c>
-      <c r="DR2" s="32">
-        <v>1</v>
-      </c>
-      <c r="DS2" s="33">
+      <c r="DQ2" s="33">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="33">
+        <v>1</v>
+      </c>
+      <c r="DS2" s="35">
         <v>0</v>
       </c>
     </row>
@@ -5612,34 +5531,34 @@
       <c r="DI3" s="31">
         <v>1</v>
       </c>
-      <c r="DJ3" s="32">
+      <c r="DJ3" s="33">
         <v>2</v>
       </c>
-      <c r="DK3" s="32">
-        <v>0</v>
-      </c>
-      <c r="DL3" s="32">
+      <c r="DK3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="33">
         <v>3</v>
       </c>
-      <c r="DM3" s="32">
+      <c r="DM3" s="33">
         <v>2</v>
       </c>
-      <c r="DN3" s="32">
-        <v>0</v>
-      </c>
-      <c r="DO3" s="32">
+      <c r="DN3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="33">
         <v>2</v>
       </c>
-      <c r="DP3" s="32">
-        <v>0</v>
-      </c>
-      <c r="DQ3" s="32">
-        <v>1</v>
-      </c>
-      <c r="DR3" s="32">
-        <v>1</v>
-      </c>
-      <c r="DS3" s="33">
+      <c r="DP3" s="33">
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="33">
+        <v>1</v>
+      </c>
+      <c r="DR3" s="33">
+        <v>1</v>
+      </c>
+      <c r="DS3" s="35">
         <v>0</v>
       </c>
     </row>
@@ -6498,82 +6417,82 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="32">
-        <v>0</v>
-      </c>
-      <c r="B111" s="32">
+      <c r="A111" s="33">
+        <v>0</v>
+      </c>
+      <c r="B111" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="32">
-        <v>0</v>
-      </c>
-      <c r="B112" s="32">
+      <c r="A112" s="33">
+        <v>0</v>
+      </c>
+      <c r="B112" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="32">
-        <v>0</v>
-      </c>
-      <c r="B113" s="32">
+      <c r="A113" s="33">
+        <v>0</v>
+      </c>
+      <c r="B113" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="32">
-        <v>0</v>
-      </c>
-      <c r="B114" s="32">
+      <c r="A114" s="33">
+        <v>0</v>
+      </c>
+      <c r="B114" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="32">
-        <v>0</v>
-      </c>
-      <c r="B115" s="32">
+      <c r="A115" s="33">
+        <v>0</v>
+      </c>
+      <c r="B115" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="32">
+      <c r="A116" s="33">
         <v>2</v>
       </c>
-      <c r="B116" s="32">
+      <c r="B116" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="32">
+      <c r="A117" s="33">
         <v>2</v>
       </c>
-      <c r="B117" s="32">
+      <c r="B117" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="32">
-        <v>0</v>
-      </c>
-      <c r="B118" s="32">
+      <c r="A118" s="33">
+        <v>0</v>
+      </c>
+      <c r="B118" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="32">
-        <v>1</v>
-      </c>
-      <c r="B119" s="32">
+      <c r="A119" s="33">
+        <v>1</v>
+      </c>
+      <c r="B119" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="33">
-        <v>0</v>
-      </c>
-      <c r="B120" s="33">
+      <c r="A120" s="35">
+        <v>0</v>
+      </c>
+      <c r="B120" s="35">
         <v>0</v>
       </c>
     </row>

--- a/bali.xlsx
+++ b/bali.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF56634-7F70-4B6C-98FD-3FA0B3243BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4681B25-B6D6-4703-9EE5-F9E93286F13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{84E13336-C440-430E-965B-9F833A38D5CE}"/>
   </bookViews>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1778,7 @@
         <v>88.04</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>25.87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>96.77</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>217.99</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>218.48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>84.07</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>128.63999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>74.650000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>92.53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>86.63</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>37.69</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>28.83</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>84.45</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>103.38</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>49.61</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>64.92</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3486,7 +3486,9 @@
       <c r="E76" s="30">
         <v>0</v>
       </c>
-      <c r="F76" s="30"/>
+      <c r="F76" s="30">
+        <v>0</v>
+      </c>
       <c r="G76" s="45">
         <v>77.7</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3558,7 +3560,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3646,7 +3648,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3676,7 +3678,7 @@
         <v>132.4</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3968,7 +3970,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4026,7 +4028,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4430,7 +4432,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
